--- a/Work Packages/WP1 Management/Stakeholders/PaNOSC stakeholders.xlsx
+++ b/Work Packages/WP1 Management/Stakeholders/PaNOSC stakeholders.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,9 +13,131 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+  <si>
+    <t>Employer</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>PaNOSC role</t>
+  </si>
+  <si>
+    <t>WP1 leader</t>
+  </si>
+  <si>
+    <t>WP1 contributor</t>
+  </si>
+  <si>
+    <t>WP2 leader</t>
+  </si>
+  <si>
+    <t>WP2 contributor</t>
+  </si>
+  <si>
+    <t>WP3 leader</t>
+  </si>
+  <si>
+    <t>WP3 contributor</t>
+  </si>
+  <si>
+    <t>WP4 leader</t>
+  </si>
+  <si>
+    <t>WP4 contributor</t>
+  </si>
+  <si>
+    <t>WP5 leader</t>
+  </si>
+  <si>
+    <t>WP5 contributor</t>
+  </si>
+  <si>
+    <t>WP6 leader</t>
+  </si>
+  <si>
+    <t>WP6 contributor</t>
+  </si>
+  <si>
+    <t>WP7 leader</t>
+  </si>
+  <si>
+    <t>WP7 contributor</t>
+  </si>
+  <si>
+    <t>WP8 leader</t>
+  </si>
+  <si>
+    <t>WP8 contributor</t>
+  </si>
+  <si>
+    <t>WP9 leader</t>
+  </si>
+  <si>
+    <t>WP9 contributor</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>ESRF</t>
+  </si>
+  <si>
+    <t>Bodera Sempere</t>
+  </si>
+  <si>
+    <t>Jordi</t>
+  </si>
+  <si>
+    <t>jordi.bodera@esrf.fr</t>
+  </si>
+  <si>
+    <t>Project Coordinator</t>
+  </si>
+  <si>
+    <t>+33 476 88 23 08</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>test comment</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,13 +145,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -41,18 +177,338 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="29">
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5419725" y="1419225"/>
+          <a:ext cx="533400" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="1952625"/>
+          <a:ext cx="533400" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AA1048576" totalsRowShown="0" headerRowDxfId="27" dataDxfId="28">
+  <autoFilter ref="A1:AA1048576"/>
+  <sortState ref="A2:AA1048576">
+    <sortCondition ref="F1:F1048576"/>
+  </sortState>
+  <tableColumns count="27">
+    <tableColumn id="1" name="Employer" dataDxfId="8"/>
+    <tableColumn id="2" name="Surname" dataDxfId="7"/>
+    <tableColumn id="3" name="Name" dataDxfId="6"/>
+    <tableColumn id="4" name="Email" dataDxfId="5"/>
+    <tableColumn id="5" name="Telephone" dataDxfId="4"/>
+    <tableColumn id="6" name="Job Title" dataDxfId="3"/>
+    <tableColumn id="7" name="Picture" dataDxfId="2"/>
+    <tableColumn id="8" name="PaNOSC role" dataDxfId="0"/>
+    <tableColumn id="9" name="WP1 leader" dataDxfId="1"/>
+    <tableColumn id="10" name="WP1 contributor" dataDxfId="26"/>
+    <tableColumn id="11" name="WP2 leader" dataDxfId="24"/>
+    <tableColumn id="12" name="WP2 contributor" dataDxfId="25"/>
+    <tableColumn id="13" name="WP3 leader" dataDxfId="22"/>
+    <tableColumn id="14" name="WP3 contributor" dataDxfId="23"/>
+    <tableColumn id="15" name="WP4 leader" dataDxfId="20"/>
+    <tableColumn id="16" name="WP4 contributor" dataDxfId="21"/>
+    <tableColumn id="17" name="WP5 leader" dataDxfId="18"/>
+    <tableColumn id="18" name="WP5 contributor" dataDxfId="19"/>
+    <tableColumn id="19" name="WP6 leader" dataDxfId="16"/>
+    <tableColumn id="20" name="WP6 contributor" dataDxfId="17"/>
+    <tableColumn id="21" name="WP7 leader" dataDxfId="14"/>
+    <tableColumn id="22" name="WP7 contributor" dataDxfId="15"/>
+    <tableColumn id="23" name="WP8 leader" dataDxfId="12"/>
+    <tableColumn id="24" name="WP8 contributor" dataDxfId="13"/>
+    <tableColumn id="25" name="WP9 leader" dataDxfId="10"/>
+    <tableColumn id="26" name="WP9 contributor" dataDxfId="11"/>
+    <tableColumn id="27" name="comments" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +554,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +589,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +797,5621 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="4.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="4.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="4.7109375" style="6" customWidth="1"/>
+    <col min="24" max="24" width="4.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="4.7109375" style="6" customWidth="1"/>
+    <col min="26" max="26" width="4.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="56.140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="4" customFormat="1" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I4" s="12"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I5" s="12"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I6" s="12"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I7" s="12"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I8" s="12"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I9" s="12"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I10" s="12"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I11" s="12"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I12" s="12"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I13" s="12"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="2"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I14" s="12"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I15" s="12"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I16" s="12"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I17" s="12"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I18" s="12"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="2"/>
+    </row>
+    <row r="19" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I19" s="12"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="2"/>
+    </row>
+    <row r="20" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I20" s="12"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I21" s="12"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I22" s="12"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I23" s="12"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I24" s="12"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I25" s="12"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I26" s="12"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I27" s="12"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="28" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I28" s="12"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="2"/>
+    </row>
+    <row r="29" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I29" s="12"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="2"/>
+    </row>
+    <row r="30" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I30" s="12"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="2"/>
+    </row>
+    <row r="31" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I31" s="12"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="2"/>
+    </row>
+    <row r="32" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I32" s="12"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="2"/>
+    </row>
+    <row r="33" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I33" s="12"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="2"/>
+    </row>
+    <row r="34" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I34" s="12"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="2"/>
+    </row>
+    <row r="35" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I35" s="12"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="2"/>
+    </row>
+    <row r="36" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I36" s="12"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="2"/>
+    </row>
+    <row r="37" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I37" s="12"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="2"/>
+    </row>
+    <row r="38" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I38" s="12"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="2"/>
+    </row>
+    <row r="39" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I39" s="12"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="2"/>
+    </row>
+    <row r="40" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I40" s="12"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="2"/>
+    </row>
+    <row r="41" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I41" s="12"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="2"/>
+    </row>
+    <row r="42" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I42" s="12"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="2"/>
+    </row>
+    <row r="43" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I43" s="12"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="2"/>
+    </row>
+    <row r="44" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I44" s="12"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="2"/>
+    </row>
+    <row r="45" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I45" s="12"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="2"/>
+    </row>
+    <row r="46" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I46" s="12"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="2"/>
+    </row>
+    <row r="47" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I47" s="12"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="2"/>
+    </row>
+    <row r="48" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I48" s="12"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="2"/>
+    </row>
+    <row r="49" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I49" s="12"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="2"/>
+    </row>
+    <row r="50" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I50" s="12"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="2"/>
+    </row>
+    <row r="51" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I51" s="12"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="2"/>
+    </row>
+    <row r="52" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I52" s="12"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="2"/>
+    </row>
+    <row r="53" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I53" s="12"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="2"/>
+    </row>
+    <row r="54" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I54" s="12"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="2"/>
+    </row>
+    <row r="55" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I55" s="12"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="2"/>
+    </row>
+    <row r="56" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I56" s="12"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="2"/>
+    </row>
+    <row r="57" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I57" s="12"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="2"/>
+    </row>
+    <row r="58" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I58" s="12"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="2"/>
+    </row>
+    <row r="59" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I59" s="12"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="2"/>
+    </row>
+    <row r="60" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I60" s="12"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="2"/>
+    </row>
+    <row r="61" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I61" s="12"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="2"/>
+    </row>
+    <row r="62" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I62" s="12"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="2"/>
+    </row>
+    <row r="63" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I63" s="12"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="2"/>
+    </row>
+    <row r="64" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I64" s="12"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="2"/>
+    </row>
+    <row r="65" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I65" s="12"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="2"/>
+    </row>
+    <row r="66" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I66" s="12"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="2"/>
+    </row>
+    <row r="67" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I67" s="12"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="2"/>
+    </row>
+    <row r="68" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I68" s="12"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="2"/>
+    </row>
+    <row r="69" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I69" s="12"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="2"/>
+    </row>
+    <row r="70" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I70" s="12"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="2"/>
+    </row>
+    <row r="71" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I71" s="12"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="2"/>
+    </row>
+    <row r="72" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I72" s="12"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="2"/>
+    </row>
+    <row r="73" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I73" s="12"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="2"/>
+    </row>
+    <row r="74" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I74" s="12"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="2"/>
+    </row>
+    <row r="75" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I75" s="12"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="12"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="2"/>
+    </row>
+    <row r="76" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I76" s="12"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="12"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="12"/>
+      <c r="Z76" s="2"/>
+    </row>
+    <row r="77" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I77" s="12"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="12"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="12"/>
+      <c r="Z77" s="2"/>
+    </row>
+    <row r="78" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I78" s="12"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="12"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="12"/>
+      <c r="Z78" s="2"/>
+    </row>
+    <row r="79" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I79" s="12"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="12"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="12"/>
+      <c r="Z79" s="2"/>
+    </row>
+    <row r="80" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I80" s="12"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="12"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="12"/>
+      <c r="Z80" s="2"/>
+    </row>
+    <row r="81" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I81" s="12"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="12"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="12"/>
+      <c r="Z81" s="2"/>
+    </row>
+    <row r="82" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I82" s="12"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="12"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="12"/>
+      <c r="Z82" s="2"/>
+    </row>
+    <row r="83" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I83" s="12"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="12"/>
+      <c r="Z83" s="2"/>
+    </row>
+    <row r="84" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I84" s="12"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="12"/>
+      <c r="Z84" s="2"/>
+    </row>
+    <row r="85" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I85" s="12"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="2"/>
+    </row>
+    <row r="86" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I86" s="12"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="12"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="2"/>
+    </row>
+    <row r="87" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I87" s="12"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="12"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="12"/>
+      <c r="Z87" s="2"/>
+    </row>
+    <row r="88" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I88" s="12"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="12"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="12"/>
+      <c r="Z88" s="2"/>
+    </row>
+    <row r="89" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I89" s="12"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="12"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="12"/>
+      <c r="Z89" s="2"/>
+    </row>
+    <row r="90" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I90" s="12"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="12"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="12"/>
+      <c r="Z90" s="2"/>
+    </row>
+    <row r="91" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I91" s="12"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="12"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="12"/>
+      <c r="Z91" s="2"/>
+    </row>
+    <row r="92" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I92" s="12"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="12"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="12"/>
+      <c r="Z92" s="2"/>
+    </row>
+    <row r="93" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I93" s="12"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="12"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="12"/>
+      <c r="Z93" s="2"/>
+    </row>
+    <row r="94" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I94" s="12"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="12"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="12"/>
+      <c r="Z94" s="2"/>
+    </row>
+    <row r="95" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I95" s="12"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="12"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="12"/>
+      <c r="Z95" s="2"/>
+    </row>
+    <row r="96" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I96" s="12"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="12"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="12"/>
+      <c r="Z96" s="2"/>
+    </row>
+    <row r="97" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I97" s="12"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="12"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="12"/>
+      <c r="Z97" s="2"/>
+    </row>
+    <row r="98" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I98" s="12"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="12"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="2"/>
+    </row>
+    <row r="99" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I99" s="12"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="12"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="12"/>
+      <c r="Z99" s="2"/>
+    </row>
+    <row r="100" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I100" s="12"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="12"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="12"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="12"/>
+      <c r="Z100" s="2"/>
+    </row>
+    <row r="101" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I101" s="12"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="12"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="12"/>
+      <c r="Z101" s="2"/>
+    </row>
+    <row r="102" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I102" s="12"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="2"/>
+    </row>
+    <row r="103" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I103" s="12"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="12"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="12"/>
+      <c r="Z103" s="2"/>
+    </row>
+    <row r="104" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I104" s="12"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="12"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="12"/>
+      <c r="Z104" s="2"/>
+    </row>
+    <row r="105" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I105" s="12"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="12"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="12"/>
+      <c r="Z105" s="2"/>
+    </row>
+    <row r="106" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I106" s="12"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="12"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="12"/>
+      <c r="Z106" s="2"/>
+    </row>
+    <row r="107" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I107" s="12"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="12"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="12"/>
+      <c r="Z107" s="2"/>
+    </row>
+    <row r="108" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I108" s="12"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="12"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="12"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="12"/>
+      <c r="Z108" s="2"/>
+    </row>
+    <row r="109" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I109" s="12"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="12"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="12"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="12"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="12"/>
+      <c r="Z109" s="2"/>
+    </row>
+    <row r="110" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I110" s="12"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="12"/>
+      <c r="Z110" s="2"/>
+    </row>
+    <row r="111" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I111" s="12"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="12"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="12"/>
+      <c r="X111" s="2"/>
+      <c r="Y111" s="12"/>
+      <c r="Z111" s="2"/>
+    </row>
+    <row r="112" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I112" s="12"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="12"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="12"/>
+      <c r="X112" s="2"/>
+      <c r="Y112" s="12"/>
+      <c r="Z112" s="2"/>
+    </row>
+    <row r="113" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I113" s="12"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="12"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="12"/>
+      <c r="X113" s="2"/>
+      <c r="Y113" s="12"/>
+      <c r="Z113" s="2"/>
+    </row>
+    <row r="114" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I114" s="12"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="12"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="12"/>
+      <c r="X114" s="2"/>
+      <c r="Y114" s="12"/>
+      <c r="Z114" s="2"/>
+    </row>
+    <row r="115" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I115" s="12"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="12"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="12"/>
+      <c r="X115" s="2"/>
+      <c r="Y115" s="12"/>
+      <c r="Z115" s="2"/>
+    </row>
+    <row r="116" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I116" s="12"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="12"/>
+      <c r="X116" s="2"/>
+      <c r="Y116" s="12"/>
+      <c r="Z116" s="2"/>
+    </row>
+    <row r="117" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I117" s="12"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="12"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="12"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="12"/>
+      <c r="Z117" s="2"/>
+    </row>
+    <row r="118" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I118" s="12"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="12"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="12"/>
+      <c r="V118" s="2"/>
+      <c r="W118" s="12"/>
+      <c r="X118" s="2"/>
+      <c r="Y118" s="12"/>
+      <c r="Z118" s="2"/>
+    </row>
+    <row r="119" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I119" s="12"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="12"/>
+      <c r="V119" s="2"/>
+      <c r="W119" s="12"/>
+      <c r="X119" s="2"/>
+      <c r="Y119" s="12"/>
+      <c r="Z119" s="2"/>
+    </row>
+    <row r="120" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I120" s="12"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="12"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="12"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="12"/>
+      <c r="X120" s="2"/>
+      <c r="Y120" s="12"/>
+      <c r="Z120" s="2"/>
+    </row>
+    <row r="121" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I121" s="12"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="12"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="12"/>
+      <c r="V121" s="2"/>
+      <c r="W121" s="12"/>
+      <c r="X121" s="2"/>
+      <c r="Y121" s="12"/>
+      <c r="Z121" s="2"/>
+    </row>
+    <row r="122" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I122" s="12"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="12"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="12"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="12"/>
+      <c r="T122" s="2"/>
+      <c r="U122" s="12"/>
+      <c r="V122" s="2"/>
+      <c r="W122" s="12"/>
+      <c r="X122" s="2"/>
+      <c r="Y122" s="12"/>
+      <c r="Z122" s="2"/>
+    </row>
+    <row r="123" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I123" s="12"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="12"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="12"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="12"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="12"/>
+      <c r="V123" s="2"/>
+      <c r="W123" s="12"/>
+      <c r="X123" s="2"/>
+      <c r="Y123" s="12"/>
+      <c r="Z123" s="2"/>
+    </row>
+    <row r="124" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I124" s="12"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="12"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="12"/>
+      <c r="V124" s="2"/>
+      <c r="W124" s="12"/>
+      <c r="X124" s="2"/>
+      <c r="Y124" s="12"/>
+      <c r="Z124" s="2"/>
+    </row>
+    <row r="125" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I125" s="12"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="12"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="12"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="12"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="12"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="12"/>
+      <c r="V125" s="2"/>
+      <c r="W125" s="12"/>
+      <c r="X125" s="2"/>
+      <c r="Y125" s="12"/>
+      <c r="Z125" s="2"/>
+    </row>
+    <row r="126" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I126" s="12"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="12"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="12"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="12"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="12"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="12"/>
+      <c r="V126" s="2"/>
+      <c r="W126" s="12"/>
+      <c r="X126" s="2"/>
+      <c r="Y126" s="12"/>
+      <c r="Z126" s="2"/>
+    </row>
+    <row r="127" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I127" s="12"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="12"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="12"/>
+      <c r="R127" s="2"/>
+      <c r="S127" s="12"/>
+      <c r="T127" s="2"/>
+      <c r="U127" s="12"/>
+      <c r="V127" s="2"/>
+      <c r="W127" s="12"/>
+      <c r="X127" s="2"/>
+      <c r="Y127" s="12"/>
+      <c r="Z127" s="2"/>
+    </row>
+    <row r="128" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I128" s="12"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="12"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="12"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="12"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="12"/>
+      <c r="T128" s="2"/>
+      <c r="U128" s="12"/>
+      <c r="V128" s="2"/>
+      <c r="W128" s="12"/>
+      <c r="X128" s="2"/>
+      <c r="Y128" s="12"/>
+      <c r="Z128" s="2"/>
+    </row>
+    <row r="129" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I129" s="12"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="12"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="12"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="12"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="12"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="12"/>
+      <c r="V129" s="2"/>
+      <c r="W129" s="12"/>
+      <c r="X129" s="2"/>
+      <c r="Y129" s="12"/>
+      <c r="Z129" s="2"/>
+    </row>
+    <row r="130" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I130" s="12"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="12"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="12"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="12"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="12"/>
+      <c r="T130" s="2"/>
+      <c r="U130" s="12"/>
+      <c r="V130" s="2"/>
+      <c r="W130" s="12"/>
+      <c r="X130" s="2"/>
+      <c r="Y130" s="12"/>
+      <c r="Z130" s="2"/>
+    </row>
+    <row r="131" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I131" s="12"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="12"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="12"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="12"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="12"/>
+      <c r="T131" s="2"/>
+      <c r="U131" s="12"/>
+      <c r="V131" s="2"/>
+      <c r="W131" s="12"/>
+      <c r="X131" s="2"/>
+      <c r="Y131" s="12"/>
+      <c r="Z131" s="2"/>
+    </row>
+    <row r="132" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I132" s="12"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="12"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="12"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="12"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="12"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="12"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="12"/>
+      <c r="V132" s="2"/>
+      <c r="W132" s="12"/>
+      <c r="X132" s="2"/>
+      <c r="Y132" s="12"/>
+      <c r="Z132" s="2"/>
+    </row>
+    <row r="133" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I133" s="12"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="12"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="12"/>
+      <c r="R133" s="2"/>
+      <c r="S133" s="12"/>
+      <c r="T133" s="2"/>
+      <c r="U133" s="12"/>
+      <c r="V133" s="2"/>
+      <c r="W133" s="12"/>
+      <c r="X133" s="2"/>
+      <c r="Y133" s="12"/>
+      <c r="Z133" s="2"/>
+    </row>
+    <row r="134" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I134" s="12"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="12"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="12"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="12"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="12"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="12"/>
+      <c r="V134" s="2"/>
+      <c r="W134" s="12"/>
+      <c r="X134" s="2"/>
+      <c r="Y134" s="12"/>
+      <c r="Z134" s="2"/>
+    </row>
+    <row r="135" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I135" s="12"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="12"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="12"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="12"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="12"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="12"/>
+      <c r="V135" s="2"/>
+      <c r="W135" s="12"/>
+      <c r="X135" s="2"/>
+      <c r="Y135" s="12"/>
+      <c r="Z135" s="2"/>
+    </row>
+    <row r="136" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I136" s="12"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="12"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="12"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="12"/>
+      <c r="T136" s="2"/>
+      <c r="U136" s="12"/>
+      <c r="V136" s="2"/>
+      <c r="W136" s="12"/>
+      <c r="X136" s="2"/>
+      <c r="Y136" s="12"/>
+      <c r="Z136" s="2"/>
+    </row>
+    <row r="137" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I137" s="12"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="12"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="12"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="12"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="12"/>
+      <c r="V137" s="2"/>
+      <c r="W137" s="12"/>
+      <c r="X137" s="2"/>
+      <c r="Y137" s="12"/>
+      <c r="Z137" s="2"/>
+    </row>
+    <row r="138" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I138" s="12"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="12"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="12"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="12"/>
+      <c r="T138" s="2"/>
+      <c r="U138" s="12"/>
+      <c r="V138" s="2"/>
+      <c r="W138" s="12"/>
+      <c r="X138" s="2"/>
+      <c r="Y138" s="12"/>
+      <c r="Z138" s="2"/>
+    </row>
+    <row r="139" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I139" s="12"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="12"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" s="12"/>
+      <c r="R139" s="2"/>
+      <c r="S139" s="12"/>
+      <c r="T139" s="2"/>
+      <c r="U139" s="12"/>
+      <c r="V139" s="2"/>
+      <c r="W139" s="12"/>
+      <c r="X139" s="2"/>
+      <c r="Y139" s="12"/>
+      <c r="Z139" s="2"/>
+    </row>
+    <row r="140" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I140" s="12"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="12"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="12"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="12"/>
+      <c r="R140" s="2"/>
+      <c r="S140" s="12"/>
+      <c r="T140" s="2"/>
+      <c r="U140" s="12"/>
+      <c r="V140" s="2"/>
+      <c r="W140" s="12"/>
+      <c r="X140" s="2"/>
+      <c r="Y140" s="12"/>
+      <c r="Z140" s="2"/>
+    </row>
+    <row r="141" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I141" s="12"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="12"/>
+      <c r="P141" s="2"/>
+      <c r="Q141" s="12"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="12"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="12"/>
+      <c r="V141" s="2"/>
+      <c r="W141" s="12"/>
+      <c r="X141" s="2"/>
+      <c r="Y141" s="12"/>
+      <c r="Z141" s="2"/>
+    </row>
+    <row r="142" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I142" s="12"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="12"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="12"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="12"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="12"/>
+      <c r="T142" s="2"/>
+      <c r="U142" s="12"/>
+      <c r="V142" s="2"/>
+      <c r="W142" s="12"/>
+      <c r="X142" s="2"/>
+      <c r="Y142" s="12"/>
+      <c r="Z142" s="2"/>
+    </row>
+    <row r="143" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I143" s="12"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="12"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="12"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="12"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="12"/>
+      <c r="T143" s="2"/>
+      <c r="U143" s="12"/>
+      <c r="V143" s="2"/>
+      <c r="W143" s="12"/>
+      <c r="X143" s="2"/>
+      <c r="Y143" s="12"/>
+      <c r="Z143" s="2"/>
+    </row>
+    <row r="144" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I144" s="12"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="12"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="12"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="12"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="12"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="12"/>
+      <c r="V144" s="2"/>
+      <c r="W144" s="12"/>
+      <c r="X144" s="2"/>
+      <c r="Y144" s="12"/>
+      <c r="Z144" s="2"/>
+    </row>
+    <row r="145" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I145" s="12"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="12"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="12"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="12"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="12"/>
+      <c r="V145" s="2"/>
+      <c r="W145" s="12"/>
+      <c r="X145" s="2"/>
+      <c r="Y145" s="12"/>
+      <c r="Z145" s="2"/>
+    </row>
+    <row r="146" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I146" s="12"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="12"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="12"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="12"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="12"/>
+      <c r="V146" s="2"/>
+      <c r="W146" s="12"/>
+      <c r="X146" s="2"/>
+      <c r="Y146" s="12"/>
+      <c r="Z146" s="2"/>
+    </row>
+    <row r="147" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I147" s="12"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="12"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="12"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="12"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="12"/>
+      <c r="T147" s="2"/>
+      <c r="U147" s="12"/>
+      <c r="V147" s="2"/>
+      <c r="W147" s="12"/>
+      <c r="X147" s="2"/>
+      <c r="Y147" s="12"/>
+      <c r="Z147" s="2"/>
+    </row>
+    <row r="148" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I148" s="12"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="12"/>
+      <c r="N148" s="2"/>
+      <c r="O148" s="12"/>
+      <c r="P148" s="2"/>
+      <c r="Q148" s="12"/>
+      <c r="R148" s="2"/>
+      <c r="S148" s="12"/>
+      <c r="T148" s="2"/>
+      <c r="U148" s="12"/>
+      <c r="V148" s="2"/>
+      <c r="W148" s="12"/>
+      <c r="X148" s="2"/>
+      <c r="Y148" s="12"/>
+      <c r="Z148" s="2"/>
+    </row>
+    <row r="149" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I149" s="12"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="12"/>
+      <c r="N149" s="2"/>
+      <c r="O149" s="12"/>
+      <c r="P149" s="2"/>
+      <c r="Q149" s="12"/>
+      <c r="R149" s="2"/>
+      <c r="S149" s="12"/>
+      <c r="T149" s="2"/>
+      <c r="U149" s="12"/>
+      <c r="V149" s="2"/>
+      <c r="W149" s="12"/>
+      <c r="X149" s="2"/>
+      <c r="Y149" s="12"/>
+      <c r="Z149" s="2"/>
+    </row>
+    <row r="150" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I150" s="12"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="12"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="12"/>
+      <c r="P150" s="2"/>
+      <c r="Q150" s="12"/>
+      <c r="R150" s="2"/>
+      <c r="S150" s="12"/>
+      <c r="T150" s="2"/>
+      <c r="U150" s="12"/>
+      <c r="V150" s="2"/>
+      <c r="W150" s="12"/>
+      <c r="X150" s="2"/>
+      <c r="Y150" s="12"/>
+      <c r="Z150" s="2"/>
+    </row>
+    <row r="151" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I151" s="12"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="12"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="12"/>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="12"/>
+      <c r="R151" s="2"/>
+      <c r="S151" s="12"/>
+      <c r="T151" s="2"/>
+      <c r="U151" s="12"/>
+      <c r="V151" s="2"/>
+      <c r="W151" s="12"/>
+      <c r="X151" s="2"/>
+      <c r="Y151" s="12"/>
+      <c r="Z151" s="2"/>
+    </row>
+    <row r="152" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I152" s="12"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="2"/>
+      <c r="O152" s="12"/>
+      <c r="P152" s="2"/>
+      <c r="Q152" s="12"/>
+      <c r="R152" s="2"/>
+      <c r="S152" s="12"/>
+      <c r="T152" s="2"/>
+      <c r="U152" s="12"/>
+      <c r="V152" s="2"/>
+      <c r="W152" s="12"/>
+      <c r="X152" s="2"/>
+      <c r="Y152" s="12"/>
+      <c r="Z152" s="2"/>
+    </row>
+    <row r="153" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I153" s="12"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="2"/>
+      <c r="O153" s="12"/>
+      <c r="P153" s="2"/>
+      <c r="Q153" s="12"/>
+      <c r="R153" s="2"/>
+      <c r="S153" s="12"/>
+      <c r="T153" s="2"/>
+      <c r="U153" s="12"/>
+      <c r="V153" s="2"/>
+      <c r="W153" s="12"/>
+      <c r="X153" s="2"/>
+      <c r="Y153" s="12"/>
+      <c r="Z153" s="2"/>
+    </row>
+    <row r="154" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I154" s="12"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="2"/>
+      <c r="O154" s="12"/>
+      <c r="P154" s="2"/>
+      <c r="Q154" s="12"/>
+      <c r="R154" s="2"/>
+      <c r="S154" s="12"/>
+      <c r="T154" s="2"/>
+      <c r="U154" s="12"/>
+      <c r="V154" s="2"/>
+      <c r="W154" s="12"/>
+      <c r="X154" s="2"/>
+      <c r="Y154" s="12"/>
+      <c r="Z154" s="2"/>
+    </row>
+    <row r="155" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I155" s="12"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="12"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="12"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="12"/>
+      <c r="T155" s="2"/>
+      <c r="U155" s="12"/>
+      <c r="V155" s="2"/>
+      <c r="W155" s="12"/>
+      <c r="X155" s="2"/>
+      <c r="Y155" s="12"/>
+      <c r="Z155" s="2"/>
+    </row>
+    <row r="156" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I156" s="12"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="12"/>
+      <c r="N156" s="2"/>
+      <c r="O156" s="12"/>
+      <c r="P156" s="2"/>
+      <c r="Q156" s="12"/>
+      <c r="R156" s="2"/>
+      <c r="S156" s="12"/>
+      <c r="T156" s="2"/>
+      <c r="U156" s="12"/>
+      <c r="V156" s="2"/>
+      <c r="W156" s="12"/>
+      <c r="X156" s="2"/>
+      <c r="Y156" s="12"/>
+      <c r="Z156" s="2"/>
+    </row>
+    <row r="157" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I157" s="12"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="12"/>
+      <c r="N157" s="2"/>
+      <c r="O157" s="12"/>
+      <c r="P157" s="2"/>
+      <c r="Q157" s="12"/>
+      <c r="R157" s="2"/>
+      <c r="S157" s="12"/>
+      <c r="T157" s="2"/>
+      <c r="U157" s="12"/>
+      <c r="V157" s="2"/>
+      <c r="W157" s="12"/>
+      <c r="X157" s="2"/>
+      <c r="Y157" s="12"/>
+      <c r="Z157" s="2"/>
+    </row>
+    <row r="158" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I158" s="12"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="12"/>
+      <c r="N158" s="2"/>
+      <c r="O158" s="12"/>
+      <c r="P158" s="2"/>
+      <c r="Q158" s="12"/>
+      <c r="R158" s="2"/>
+      <c r="S158" s="12"/>
+      <c r="T158" s="2"/>
+      <c r="U158" s="12"/>
+      <c r="V158" s="2"/>
+      <c r="W158" s="12"/>
+      <c r="X158" s="2"/>
+      <c r="Y158" s="12"/>
+      <c r="Z158" s="2"/>
+    </row>
+    <row r="159" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I159" s="12"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="12"/>
+      <c r="N159" s="2"/>
+      <c r="O159" s="12"/>
+      <c r="P159" s="2"/>
+      <c r="Q159" s="12"/>
+      <c r="R159" s="2"/>
+      <c r="S159" s="12"/>
+      <c r="T159" s="2"/>
+      <c r="U159" s="12"/>
+      <c r="V159" s="2"/>
+      <c r="W159" s="12"/>
+      <c r="X159" s="2"/>
+      <c r="Y159" s="12"/>
+      <c r="Z159" s="2"/>
+    </row>
+    <row r="160" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I160" s="12"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="2"/>
+      <c r="O160" s="12"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="12"/>
+      <c r="R160" s="2"/>
+      <c r="S160" s="12"/>
+      <c r="T160" s="2"/>
+      <c r="U160" s="12"/>
+      <c r="V160" s="2"/>
+      <c r="W160" s="12"/>
+      <c r="X160" s="2"/>
+      <c r="Y160" s="12"/>
+      <c r="Z160" s="2"/>
+    </row>
+    <row r="161" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I161" s="12"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="12"/>
+      <c r="N161" s="2"/>
+      <c r="O161" s="12"/>
+      <c r="P161" s="2"/>
+      <c r="Q161" s="12"/>
+      <c r="R161" s="2"/>
+      <c r="S161" s="12"/>
+      <c r="T161" s="2"/>
+      <c r="U161" s="12"/>
+      <c r="V161" s="2"/>
+      <c r="W161" s="12"/>
+      <c r="X161" s="2"/>
+      <c r="Y161" s="12"/>
+      <c r="Z161" s="2"/>
+    </row>
+    <row r="162" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I162" s="12"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="12"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="12"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="12"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="12"/>
+      <c r="V162" s="2"/>
+      <c r="W162" s="12"/>
+      <c r="X162" s="2"/>
+      <c r="Y162" s="12"/>
+      <c r="Z162" s="2"/>
+    </row>
+    <row r="163" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I163" s="12"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="12"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="12"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="12"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="12"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="12"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="12"/>
+      <c r="V163" s="2"/>
+      <c r="W163" s="12"/>
+      <c r="X163" s="2"/>
+      <c r="Y163" s="12"/>
+      <c r="Z163" s="2"/>
+    </row>
+    <row r="164" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I164" s="12"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="12"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="12"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="12"/>
+      <c r="T164" s="2"/>
+      <c r="U164" s="12"/>
+      <c r="V164" s="2"/>
+      <c r="W164" s="12"/>
+      <c r="X164" s="2"/>
+      <c r="Y164" s="12"/>
+      <c r="Z164" s="2"/>
+    </row>
+    <row r="165" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I165" s="12"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="12"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="12"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="12"/>
+      <c r="T165" s="2"/>
+      <c r="U165" s="12"/>
+      <c r="V165" s="2"/>
+      <c r="W165" s="12"/>
+      <c r="X165" s="2"/>
+      <c r="Y165" s="12"/>
+      <c r="Z165" s="2"/>
+    </row>
+    <row r="166" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I166" s="12"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="12"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="12"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" s="12"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="12"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="12"/>
+      <c r="V166" s="2"/>
+      <c r="W166" s="12"/>
+      <c r="X166" s="2"/>
+      <c r="Y166" s="12"/>
+      <c r="Z166" s="2"/>
+    </row>
+    <row r="167" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I167" s="12"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="12"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="12"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="12"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="12"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="12"/>
+      <c r="T167" s="2"/>
+      <c r="U167" s="12"/>
+      <c r="V167" s="2"/>
+      <c r="W167" s="12"/>
+      <c r="X167" s="2"/>
+      <c r="Y167" s="12"/>
+      <c r="Z167" s="2"/>
+    </row>
+    <row r="168" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I168" s="12"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="12"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="12"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="12"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" s="12"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="12"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="12"/>
+      <c r="V168" s="2"/>
+      <c r="W168" s="12"/>
+      <c r="X168" s="2"/>
+      <c r="Y168" s="12"/>
+      <c r="Z168" s="2"/>
+    </row>
+    <row r="169" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I169" s="12"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="12"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="12"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="12"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="12"/>
+      <c r="V169" s="2"/>
+      <c r="W169" s="12"/>
+      <c r="X169" s="2"/>
+      <c r="Y169" s="12"/>
+      <c r="Z169" s="2"/>
+    </row>
+    <row r="170" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I170" s="12"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="2"/>
+      <c r="M170" s="12"/>
+      <c r="N170" s="2"/>
+      <c r="O170" s="12"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="12"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="12"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="12"/>
+      <c r="V170" s="2"/>
+      <c r="W170" s="12"/>
+      <c r="X170" s="2"/>
+      <c r="Y170" s="12"/>
+      <c r="Z170" s="2"/>
+    </row>
+    <row r="171" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I171" s="12"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="12"/>
+      <c r="N171" s="2"/>
+      <c r="O171" s="12"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" s="12"/>
+      <c r="R171" s="2"/>
+      <c r="S171" s="12"/>
+      <c r="T171" s="2"/>
+      <c r="U171" s="12"/>
+      <c r="V171" s="2"/>
+      <c r="W171" s="12"/>
+      <c r="X171" s="2"/>
+      <c r="Y171" s="12"/>
+      <c r="Z171" s="2"/>
+    </row>
+    <row r="172" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I172" s="12"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="12"/>
+      <c r="N172" s="2"/>
+      <c r="O172" s="12"/>
+      <c r="P172" s="2"/>
+      <c r="Q172" s="12"/>
+      <c r="R172" s="2"/>
+      <c r="S172" s="12"/>
+      <c r="T172" s="2"/>
+      <c r="U172" s="12"/>
+      <c r="V172" s="2"/>
+      <c r="W172" s="12"/>
+      <c r="X172" s="2"/>
+      <c r="Y172" s="12"/>
+      <c r="Z172" s="2"/>
+    </row>
+    <row r="173" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I173" s="12"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="12"/>
+      <c r="L173" s="2"/>
+      <c r="M173" s="12"/>
+      <c r="N173" s="2"/>
+      <c r="O173" s="12"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="12"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="12"/>
+      <c r="T173" s="2"/>
+      <c r="U173" s="12"/>
+      <c r="V173" s="2"/>
+      <c r="W173" s="12"/>
+      <c r="X173" s="2"/>
+      <c r="Y173" s="12"/>
+      <c r="Z173" s="2"/>
+    </row>
+    <row r="174" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I174" s="12"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="2"/>
+      <c r="O174" s="12"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="12"/>
+      <c r="R174" s="2"/>
+      <c r="S174" s="12"/>
+      <c r="T174" s="2"/>
+      <c r="U174" s="12"/>
+      <c r="V174" s="2"/>
+      <c r="W174" s="12"/>
+      <c r="X174" s="2"/>
+      <c r="Y174" s="12"/>
+      <c r="Z174" s="2"/>
+    </row>
+    <row r="175" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I175" s="12"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="2"/>
+      <c r="O175" s="12"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" s="12"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="12"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="12"/>
+      <c r="V175" s="2"/>
+      <c r="W175" s="12"/>
+      <c r="X175" s="2"/>
+      <c r="Y175" s="12"/>
+      <c r="Z175" s="2"/>
+    </row>
+    <row r="176" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I176" s="12"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="2"/>
+      <c r="O176" s="12"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" s="12"/>
+      <c r="R176" s="2"/>
+      <c r="S176" s="12"/>
+      <c r="T176" s="2"/>
+      <c r="U176" s="12"/>
+      <c r="V176" s="2"/>
+      <c r="W176" s="12"/>
+      <c r="X176" s="2"/>
+      <c r="Y176" s="12"/>
+      <c r="Z176" s="2"/>
+    </row>
+    <row r="177" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I177" s="12"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="2"/>
+      <c r="M177" s="12"/>
+      <c r="N177" s="2"/>
+      <c r="O177" s="12"/>
+      <c r="P177" s="2"/>
+      <c r="Q177" s="12"/>
+      <c r="R177" s="2"/>
+      <c r="S177" s="12"/>
+      <c r="T177" s="2"/>
+      <c r="U177" s="12"/>
+      <c r="V177" s="2"/>
+      <c r="W177" s="12"/>
+      <c r="X177" s="2"/>
+      <c r="Y177" s="12"/>
+      <c r="Z177" s="2"/>
+    </row>
+    <row r="178" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I178" s="12"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="2"/>
+      <c r="M178" s="12"/>
+      <c r="N178" s="2"/>
+      <c r="O178" s="12"/>
+      <c r="P178" s="2"/>
+      <c r="Q178" s="12"/>
+      <c r="R178" s="2"/>
+      <c r="S178" s="12"/>
+      <c r="T178" s="2"/>
+      <c r="U178" s="12"/>
+      <c r="V178" s="2"/>
+      <c r="W178" s="12"/>
+      <c r="X178" s="2"/>
+      <c r="Y178" s="12"/>
+      <c r="Z178" s="2"/>
+    </row>
+    <row r="179" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I179" s="12"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="2"/>
+      <c r="M179" s="12"/>
+      <c r="N179" s="2"/>
+      <c r="O179" s="12"/>
+      <c r="P179" s="2"/>
+      <c r="Q179" s="12"/>
+      <c r="R179" s="2"/>
+      <c r="S179" s="12"/>
+      <c r="T179" s="2"/>
+      <c r="U179" s="12"/>
+      <c r="V179" s="2"/>
+      <c r="W179" s="12"/>
+      <c r="X179" s="2"/>
+      <c r="Y179" s="12"/>
+      <c r="Z179" s="2"/>
+    </row>
+    <row r="180" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I180" s="12"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="2"/>
+      <c r="M180" s="12"/>
+      <c r="N180" s="2"/>
+      <c r="O180" s="12"/>
+      <c r="P180" s="2"/>
+      <c r="Q180" s="12"/>
+      <c r="R180" s="2"/>
+      <c r="S180" s="12"/>
+      <c r="T180" s="2"/>
+      <c r="U180" s="12"/>
+      <c r="V180" s="2"/>
+      <c r="W180" s="12"/>
+      <c r="X180" s="2"/>
+      <c r="Y180" s="12"/>
+      <c r="Z180" s="2"/>
+    </row>
+    <row r="181" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I181" s="12"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="12"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="12"/>
+      <c r="N181" s="2"/>
+      <c r="O181" s="12"/>
+      <c r="P181" s="2"/>
+      <c r="Q181" s="12"/>
+      <c r="R181" s="2"/>
+      <c r="S181" s="12"/>
+      <c r="T181" s="2"/>
+      <c r="U181" s="12"/>
+      <c r="V181" s="2"/>
+      <c r="W181" s="12"/>
+      <c r="X181" s="2"/>
+      <c r="Y181" s="12"/>
+      <c r="Z181" s="2"/>
+    </row>
+    <row r="182" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I182" s="12"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="2"/>
+      <c r="M182" s="12"/>
+      <c r="N182" s="2"/>
+      <c r="O182" s="12"/>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="12"/>
+      <c r="R182" s="2"/>
+      <c r="S182" s="12"/>
+      <c r="T182" s="2"/>
+      <c r="U182" s="12"/>
+      <c r="V182" s="2"/>
+      <c r="W182" s="12"/>
+      <c r="X182" s="2"/>
+      <c r="Y182" s="12"/>
+      <c r="Z182" s="2"/>
+    </row>
+    <row r="183" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I183" s="12"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="12"/>
+      <c r="L183" s="2"/>
+      <c r="M183" s="12"/>
+      <c r="N183" s="2"/>
+      <c r="O183" s="12"/>
+      <c r="P183" s="2"/>
+      <c r="Q183" s="12"/>
+      <c r="R183" s="2"/>
+      <c r="S183" s="12"/>
+      <c r="T183" s="2"/>
+      <c r="U183" s="12"/>
+      <c r="V183" s="2"/>
+      <c r="W183" s="12"/>
+      <c r="X183" s="2"/>
+      <c r="Y183" s="12"/>
+      <c r="Z183" s="2"/>
+    </row>
+    <row r="184" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I184" s="12"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="12"/>
+      <c r="L184" s="2"/>
+      <c r="M184" s="12"/>
+      <c r="N184" s="2"/>
+      <c r="O184" s="12"/>
+      <c r="P184" s="2"/>
+      <c r="Q184" s="12"/>
+      <c r="R184" s="2"/>
+      <c r="S184" s="12"/>
+      <c r="T184" s="2"/>
+      <c r="U184" s="12"/>
+      <c r="V184" s="2"/>
+      <c r="W184" s="12"/>
+      <c r="X184" s="2"/>
+      <c r="Y184" s="12"/>
+      <c r="Z184" s="2"/>
+    </row>
+    <row r="185" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I185" s="12"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="12"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="12"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="12"/>
+      <c r="P185" s="2"/>
+      <c r="Q185" s="12"/>
+      <c r="R185" s="2"/>
+      <c r="S185" s="12"/>
+      <c r="T185" s="2"/>
+      <c r="U185" s="12"/>
+      <c r="V185" s="2"/>
+      <c r="W185" s="12"/>
+      <c r="X185" s="2"/>
+      <c r="Y185" s="12"/>
+      <c r="Z185" s="2"/>
+    </row>
+    <row r="186" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I186" s="12"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="2"/>
+      <c r="M186" s="12"/>
+      <c r="N186" s="2"/>
+      <c r="O186" s="12"/>
+      <c r="P186" s="2"/>
+      <c r="Q186" s="12"/>
+      <c r="R186" s="2"/>
+      <c r="S186" s="12"/>
+      <c r="T186" s="2"/>
+      <c r="U186" s="12"/>
+      <c r="V186" s="2"/>
+      <c r="W186" s="12"/>
+      <c r="X186" s="2"/>
+      <c r="Y186" s="12"/>
+      <c r="Z186" s="2"/>
+    </row>
+    <row r="187" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I187" s="12"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="2"/>
+      <c r="M187" s="12"/>
+      <c r="N187" s="2"/>
+      <c r="O187" s="12"/>
+      <c r="P187" s="2"/>
+      <c r="Q187" s="12"/>
+      <c r="R187" s="2"/>
+      <c r="S187" s="12"/>
+      <c r="T187" s="2"/>
+      <c r="U187" s="12"/>
+      <c r="V187" s="2"/>
+      <c r="W187" s="12"/>
+      <c r="X187" s="2"/>
+      <c r="Y187" s="12"/>
+      <c r="Z187" s="2"/>
+    </row>
+    <row r="188" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I188" s="12"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="12"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="12"/>
+      <c r="N188" s="2"/>
+      <c r="O188" s="12"/>
+      <c r="P188" s="2"/>
+      <c r="Q188" s="12"/>
+      <c r="R188" s="2"/>
+      <c r="S188" s="12"/>
+      <c r="T188" s="2"/>
+      <c r="U188" s="12"/>
+      <c r="V188" s="2"/>
+      <c r="W188" s="12"/>
+      <c r="X188" s="2"/>
+      <c r="Y188" s="12"/>
+      <c r="Z188" s="2"/>
+    </row>
+    <row r="189" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I189" s="12"/>
+      <c r="J189" s="2"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="2"/>
+      <c r="M189" s="12"/>
+      <c r="N189" s="2"/>
+      <c r="O189" s="12"/>
+      <c r="P189" s="2"/>
+      <c r="Q189" s="12"/>
+      <c r="R189" s="2"/>
+      <c r="S189" s="12"/>
+      <c r="T189" s="2"/>
+      <c r="U189" s="12"/>
+      <c r="V189" s="2"/>
+      <c r="W189" s="12"/>
+      <c r="X189" s="2"/>
+      <c r="Y189" s="12"/>
+      <c r="Z189" s="2"/>
+    </row>
+    <row r="190" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I190" s="12"/>
+      <c r="J190" s="2"/>
+      <c r="K190" s="12"/>
+      <c r="L190" s="2"/>
+      <c r="M190" s="12"/>
+      <c r="N190" s="2"/>
+      <c r="O190" s="12"/>
+      <c r="P190" s="2"/>
+      <c r="Q190" s="12"/>
+      <c r="R190" s="2"/>
+      <c r="S190" s="12"/>
+      <c r="T190" s="2"/>
+      <c r="U190" s="12"/>
+      <c r="V190" s="2"/>
+      <c r="W190" s="12"/>
+      <c r="X190" s="2"/>
+      <c r="Y190" s="12"/>
+      <c r="Z190" s="2"/>
+    </row>
+    <row r="191" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I191" s="12"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="12"/>
+      <c r="N191" s="2"/>
+      <c r="O191" s="12"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="12"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="12"/>
+      <c r="T191" s="2"/>
+      <c r="U191" s="12"/>
+      <c r="V191" s="2"/>
+      <c r="W191" s="12"/>
+      <c r="X191" s="2"/>
+      <c r="Y191" s="12"/>
+      <c r="Z191" s="2"/>
+    </row>
+    <row r="192" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I192" s="12"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="12"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="12"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="12"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="12"/>
+      <c r="R192" s="2"/>
+      <c r="S192" s="12"/>
+      <c r="T192" s="2"/>
+      <c r="U192" s="12"/>
+      <c r="V192" s="2"/>
+      <c r="W192" s="12"/>
+      <c r="X192" s="2"/>
+      <c r="Y192" s="12"/>
+      <c r="Z192" s="2"/>
+    </row>
+    <row r="193" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I193" s="12"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="12"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="12"/>
+      <c r="N193" s="2"/>
+      <c r="O193" s="12"/>
+      <c r="P193" s="2"/>
+      <c r="Q193" s="12"/>
+      <c r="R193" s="2"/>
+      <c r="S193" s="12"/>
+      <c r="T193" s="2"/>
+      <c r="U193" s="12"/>
+      <c r="V193" s="2"/>
+      <c r="W193" s="12"/>
+      <c r="X193" s="2"/>
+      <c r="Y193" s="12"/>
+      <c r="Z193" s="2"/>
+    </row>
+    <row r="194" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I194" s="12"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="12"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="12"/>
+      <c r="N194" s="2"/>
+      <c r="O194" s="12"/>
+      <c r="P194" s="2"/>
+      <c r="Q194" s="12"/>
+      <c r="R194" s="2"/>
+      <c r="S194" s="12"/>
+      <c r="T194" s="2"/>
+      <c r="U194" s="12"/>
+      <c r="V194" s="2"/>
+      <c r="W194" s="12"/>
+      <c r="X194" s="2"/>
+      <c r="Y194" s="12"/>
+      <c r="Z194" s="2"/>
+    </row>
+    <row r="195" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I195" s="12"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="12"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="12"/>
+      <c r="N195" s="2"/>
+      <c r="O195" s="12"/>
+      <c r="P195" s="2"/>
+      <c r="Q195" s="12"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="12"/>
+      <c r="T195" s="2"/>
+      <c r="U195" s="12"/>
+      <c r="V195" s="2"/>
+      <c r="W195" s="12"/>
+      <c r="X195" s="2"/>
+      <c r="Y195" s="12"/>
+      <c r="Z195" s="2"/>
+    </row>
+    <row r="196" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I196" s="12"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="12"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="12"/>
+      <c r="N196" s="2"/>
+      <c r="O196" s="12"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" s="12"/>
+      <c r="R196" s="2"/>
+      <c r="S196" s="12"/>
+      <c r="T196" s="2"/>
+      <c r="U196" s="12"/>
+      <c r="V196" s="2"/>
+      <c r="W196" s="12"/>
+      <c r="X196" s="2"/>
+      <c r="Y196" s="12"/>
+      <c r="Z196" s="2"/>
+    </row>
+    <row r="197" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I197" s="12"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="12"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="12"/>
+      <c r="N197" s="2"/>
+      <c r="O197" s="12"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="12"/>
+      <c r="R197" s="2"/>
+      <c r="S197" s="12"/>
+      <c r="T197" s="2"/>
+      <c r="U197" s="12"/>
+      <c r="V197" s="2"/>
+      <c r="W197" s="12"/>
+      <c r="X197" s="2"/>
+      <c r="Y197" s="12"/>
+      <c r="Z197" s="2"/>
+    </row>
+    <row r="198" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I198" s="12"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="12"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="12"/>
+      <c r="N198" s="2"/>
+      <c r="O198" s="12"/>
+      <c r="P198" s="2"/>
+      <c r="Q198" s="12"/>
+      <c r="R198" s="2"/>
+      <c r="S198" s="12"/>
+      <c r="T198" s="2"/>
+      <c r="U198" s="12"/>
+      <c r="V198" s="2"/>
+      <c r="W198" s="12"/>
+      <c r="X198" s="2"/>
+      <c r="Y198" s="12"/>
+      <c r="Z198" s="2"/>
+    </row>
+    <row r="199" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I199" s="12"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="12"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="12"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="12"/>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="12"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="12"/>
+      <c r="T199" s="2"/>
+      <c r="U199" s="12"/>
+      <c r="V199" s="2"/>
+      <c r="W199" s="12"/>
+      <c r="X199" s="2"/>
+      <c r="Y199" s="12"/>
+      <c r="Z199" s="2"/>
+    </row>
+    <row r="200" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I200" s="12"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="12"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="12"/>
+      <c r="N200" s="2"/>
+      <c r="O200" s="12"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="12"/>
+      <c r="R200" s="2"/>
+      <c r="S200" s="12"/>
+      <c r="T200" s="2"/>
+      <c r="U200" s="12"/>
+      <c r="V200" s="2"/>
+      <c r="W200" s="12"/>
+      <c r="X200" s="2"/>
+      <c r="Y200" s="12"/>
+      <c r="Z200" s="2"/>
+    </row>
+    <row r="201" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I201" s="12"/>
+      <c r="J201" s="2"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="2"/>
+      <c r="M201" s="12"/>
+      <c r="N201" s="2"/>
+      <c r="O201" s="12"/>
+      <c r="P201" s="2"/>
+      <c r="Q201" s="12"/>
+      <c r="R201" s="2"/>
+      <c r="S201" s="12"/>
+      <c r="T201" s="2"/>
+      <c r="U201" s="12"/>
+      <c r="V201" s="2"/>
+      <c r="W201" s="12"/>
+      <c r="X201" s="2"/>
+      <c r="Y201" s="12"/>
+      <c r="Z201" s="2"/>
+    </row>
+    <row r="202" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I202" s="12"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="12"/>
+      <c r="L202" s="2"/>
+      <c r="M202" s="12"/>
+      <c r="N202" s="2"/>
+      <c r="O202" s="12"/>
+      <c r="P202" s="2"/>
+      <c r="Q202" s="12"/>
+      <c r="R202" s="2"/>
+      <c r="S202" s="12"/>
+      <c r="T202" s="2"/>
+      <c r="U202" s="12"/>
+      <c r="V202" s="2"/>
+      <c r="W202" s="12"/>
+      <c r="X202" s="2"/>
+      <c r="Y202" s="12"/>
+      <c r="Z202" s="2"/>
+    </row>
+    <row r="203" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I203" s="12"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="12"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="12"/>
+      <c r="N203" s="2"/>
+      <c r="O203" s="12"/>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="12"/>
+      <c r="R203" s="2"/>
+      <c r="S203" s="12"/>
+      <c r="T203" s="2"/>
+      <c r="U203" s="12"/>
+      <c r="V203" s="2"/>
+      <c r="W203" s="12"/>
+      <c r="X203" s="2"/>
+      <c r="Y203" s="12"/>
+      <c r="Z203" s="2"/>
+    </row>
+    <row r="204" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I204" s="12"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="12"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="12"/>
+      <c r="N204" s="2"/>
+      <c r="O204" s="12"/>
+      <c r="P204" s="2"/>
+      <c r="Q204" s="12"/>
+      <c r="R204" s="2"/>
+      <c r="S204" s="12"/>
+      <c r="T204" s="2"/>
+      <c r="U204" s="12"/>
+      <c r="V204" s="2"/>
+      <c r="W204" s="12"/>
+      <c r="X204" s="2"/>
+      <c r="Y204" s="12"/>
+      <c r="Z204" s="2"/>
+    </row>
+    <row r="205" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I205" s="12"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="12"/>
+      <c r="L205" s="2"/>
+      <c r="M205" s="12"/>
+      <c r="N205" s="2"/>
+      <c r="O205" s="12"/>
+      <c r="P205" s="2"/>
+      <c r="Q205" s="12"/>
+      <c r="R205" s="2"/>
+      <c r="S205" s="12"/>
+      <c r="T205" s="2"/>
+      <c r="U205" s="12"/>
+      <c r="V205" s="2"/>
+      <c r="W205" s="12"/>
+      <c r="X205" s="2"/>
+      <c r="Y205" s="12"/>
+      <c r="Z205" s="2"/>
+    </row>
+    <row r="206" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I206" s="12"/>
+      <c r="J206" s="2"/>
+      <c r="K206" s="12"/>
+      <c r="L206" s="2"/>
+      <c r="M206" s="12"/>
+      <c r="N206" s="2"/>
+      <c r="O206" s="12"/>
+      <c r="P206" s="2"/>
+      <c r="Q206" s="12"/>
+      <c r="R206" s="2"/>
+      <c r="S206" s="12"/>
+      <c r="T206" s="2"/>
+      <c r="U206" s="12"/>
+      <c r="V206" s="2"/>
+      <c r="W206" s="12"/>
+      <c r="X206" s="2"/>
+      <c r="Y206" s="12"/>
+      <c r="Z206" s="2"/>
+    </row>
+    <row r="207" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I207" s="12"/>
+      <c r="J207" s="2"/>
+      <c r="K207" s="12"/>
+      <c r="L207" s="2"/>
+      <c r="M207" s="12"/>
+      <c r="N207" s="2"/>
+      <c r="O207" s="12"/>
+      <c r="P207" s="2"/>
+      <c r="Q207" s="12"/>
+      <c r="R207" s="2"/>
+      <c r="S207" s="12"/>
+      <c r="T207" s="2"/>
+      <c r="U207" s="12"/>
+      <c r="V207" s="2"/>
+      <c r="W207" s="12"/>
+      <c r="X207" s="2"/>
+      <c r="Y207" s="12"/>
+      <c r="Z207" s="2"/>
+    </row>
+    <row r="208" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I208" s="12"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="12"/>
+      <c r="L208" s="2"/>
+      <c r="M208" s="12"/>
+      <c r="N208" s="2"/>
+      <c r="O208" s="12"/>
+      <c r="P208" s="2"/>
+      <c r="Q208" s="12"/>
+      <c r="R208" s="2"/>
+      <c r="S208" s="12"/>
+      <c r="T208" s="2"/>
+      <c r="U208" s="12"/>
+      <c r="V208" s="2"/>
+      <c r="W208" s="12"/>
+      <c r="X208" s="2"/>
+      <c r="Y208" s="12"/>
+      <c r="Z208" s="2"/>
+    </row>
+    <row r="209" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I209" s="12"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="12"/>
+      <c r="L209" s="2"/>
+      <c r="M209" s="12"/>
+      <c r="N209" s="2"/>
+      <c r="O209" s="12"/>
+      <c r="P209" s="2"/>
+      <c r="Q209" s="12"/>
+      <c r="R209" s="2"/>
+      <c r="S209" s="12"/>
+      <c r="T209" s="2"/>
+      <c r="U209" s="12"/>
+      <c r="V209" s="2"/>
+      <c r="W209" s="12"/>
+      <c r="X209" s="2"/>
+      <c r="Y209" s="12"/>
+      <c r="Z209" s="2"/>
+    </row>
+    <row r="210" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I210" s="12"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="12"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="12"/>
+      <c r="N210" s="2"/>
+      <c r="O210" s="12"/>
+      <c r="P210" s="2"/>
+      <c r="Q210" s="12"/>
+      <c r="R210" s="2"/>
+      <c r="S210" s="12"/>
+      <c r="T210" s="2"/>
+      <c r="U210" s="12"/>
+      <c r="V210" s="2"/>
+      <c r="W210" s="12"/>
+      <c r="X210" s="2"/>
+      <c r="Y210" s="12"/>
+      <c r="Z210" s="2"/>
+    </row>
+    <row r="211" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I211" s="12"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="12"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="12"/>
+      <c r="N211" s="2"/>
+      <c r="O211" s="12"/>
+      <c r="P211" s="2"/>
+      <c r="Q211" s="12"/>
+      <c r="R211" s="2"/>
+      <c r="S211" s="12"/>
+      <c r="T211" s="2"/>
+      <c r="U211" s="12"/>
+      <c r="V211" s="2"/>
+      <c r="W211" s="12"/>
+      <c r="X211" s="2"/>
+      <c r="Y211" s="12"/>
+      <c r="Z211" s="2"/>
+    </row>
+    <row r="212" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I212" s="12"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="12"/>
+      <c r="L212" s="2"/>
+      <c r="M212" s="12"/>
+      <c r="N212" s="2"/>
+      <c r="O212" s="12"/>
+      <c r="P212" s="2"/>
+      <c r="Q212" s="12"/>
+      <c r="R212" s="2"/>
+      <c r="S212" s="12"/>
+      <c r="T212" s="2"/>
+      <c r="U212" s="12"/>
+      <c r="V212" s="2"/>
+      <c r="W212" s="12"/>
+      <c r="X212" s="2"/>
+      <c r="Y212" s="12"/>
+      <c r="Z212" s="2"/>
+    </row>
+    <row r="213" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I213" s="12"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="12"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="12"/>
+      <c r="N213" s="2"/>
+      <c r="O213" s="12"/>
+      <c r="P213" s="2"/>
+      <c r="Q213" s="12"/>
+      <c r="R213" s="2"/>
+      <c r="S213" s="12"/>
+      <c r="T213" s="2"/>
+      <c r="U213" s="12"/>
+      <c r="V213" s="2"/>
+      <c r="W213" s="12"/>
+      <c r="X213" s="2"/>
+      <c r="Y213" s="12"/>
+      <c r="Z213" s="2"/>
+    </row>
+    <row r="214" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I214" s="12"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="12"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="12"/>
+      <c r="N214" s="2"/>
+      <c r="O214" s="12"/>
+      <c r="P214" s="2"/>
+      <c r="Q214" s="12"/>
+      <c r="R214" s="2"/>
+      <c r="S214" s="12"/>
+      <c r="T214" s="2"/>
+      <c r="U214" s="12"/>
+      <c r="V214" s="2"/>
+      <c r="W214" s="12"/>
+      <c r="X214" s="2"/>
+      <c r="Y214" s="12"/>
+      <c r="Z214" s="2"/>
+    </row>
+    <row r="215" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I215" s="12"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="12"/>
+      <c r="L215" s="2"/>
+      <c r="M215" s="12"/>
+      <c r="N215" s="2"/>
+      <c r="O215" s="12"/>
+      <c r="P215" s="2"/>
+      <c r="Q215" s="12"/>
+      <c r="R215" s="2"/>
+      <c r="S215" s="12"/>
+      <c r="T215" s="2"/>
+      <c r="U215" s="12"/>
+      <c r="V215" s="2"/>
+      <c r="W215" s="12"/>
+      <c r="X215" s="2"/>
+      <c r="Y215" s="12"/>
+      <c r="Z215" s="2"/>
+    </row>
+    <row r="216" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I216" s="12"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="12"/>
+      <c r="L216" s="2"/>
+      <c r="M216" s="12"/>
+      <c r="N216" s="2"/>
+      <c r="O216" s="12"/>
+      <c r="P216" s="2"/>
+      <c r="Q216" s="12"/>
+      <c r="R216" s="2"/>
+      <c r="S216" s="12"/>
+      <c r="T216" s="2"/>
+      <c r="U216" s="12"/>
+      <c r="V216" s="2"/>
+      <c r="W216" s="12"/>
+      <c r="X216" s="2"/>
+      <c r="Y216" s="12"/>
+      <c r="Z216" s="2"/>
+    </row>
+    <row r="217" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I217" s="12"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="12"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="12"/>
+      <c r="N217" s="2"/>
+      <c r="O217" s="12"/>
+      <c r="P217" s="2"/>
+      <c r="Q217" s="12"/>
+      <c r="R217" s="2"/>
+      <c r="S217" s="12"/>
+      <c r="T217" s="2"/>
+      <c r="U217" s="12"/>
+      <c r="V217" s="2"/>
+      <c r="W217" s="12"/>
+      <c r="X217" s="2"/>
+      <c r="Y217" s="12"/>
+      <c r="Z217" s="2"/>
+    </row>
+    <row r="218" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I218" s="12"/>
+      <c r="J218" s="2"/>
+      <c r="K218" s="12"/>
+      <c r="L218" s="2"/>
+      <c r="M218" s="12"/>
+      <c r="N218" s="2"/>
+      <c r="O218" s="12"/>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="12"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="12"/>
+      <c r="T218" s="2"/>
+      <c r="U218" s="12"/>
+      <c r="V218" s="2"/>
+      <c r="W218" s="12"/>
+      <c r="X218" s="2"/>
+      <c r="Y218" s="12"/>
+      <c r="Z218" s="2"/>
+    </row>
+    <row r="219" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I219" s="12"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="12"/>
+      <c r="L219" s="2"/>
+      <c r="M219" s="12"/>
+      <c r="N219" s="2"/>
+      <c r="O219" s="12"/>
+      <c r="P219" s="2"/>
+      <c r="Q219" s="12"/>
+      <c r="R219" s="2"/>
+      <c r="S219" s="12"/>
+      <c r="T219" s="2"/>
+      <c r="U219" s="12"/>
+      <c r="V219" s="2"/>
+      <c r="W219" s="12"/>
+      <c r="X219" s="2"/>
+      <c r="Y219" s="12"/>
+      <c r="Z219" s="2"/>
+    </row>
+    <row r="220" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I220" s="12"/>
+      <c r="J220" s="2"/>
+      <c r="K220" s="12"/>
+      <c r="L220" s="2"/>
+      <c r="M220" s="12"/>
+      <c r="N220" s="2"/>
+      <c r="O220" s="12"/>
+      <c r="P220" s="2"/>
+      <c r="Q220" s="12"/>
+      <c r="R220" s="2"/>
+      <c r="S220" s="12"/>
+      <c r="T220" s="2"/>
+      <c r="U220" s="12"/>
+      <c r="V220" s="2"/>
+      <c r="W220" s="12"/>
+      <c r="X220" s="2"/>
+      <c r="Y220" s="12"/>
+      <c r="Z220" s="2"/>
+    </row>
+    <row r="221" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I221" s="12"/>
+      <c r="J221" s="2"/>
+      <c r="K221" s="12"/>
+      <c r="L221" s="2"/>
+      <c r="M221" s="12"/>
+      <c r="N221" s="2"/>
+      <c r="O221" s="12"/>
+      <c r="P221" s="2"/>
+      <c r="Q221" s="12"/>
+      <c r="R221" s="2"/>
+      <c r="S221" s="12"/>
+      <c r="T221" s="2"/>
+      <c r="U221" s="12"/>
+      <c r="V221" s="2"/>
+      <c r="W221" s="12"/>
+      <c r="X221" s="2"/>
+      <c r="Y221" s="12"/>
+      <c r="Z221" s="2"/>
+    </row>
+    <row r="222" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I222" s="12"/>
+      <c r="J222" s="2"/>
+      <c r="K222" s="12"/>
+      <c r="L222" s="2"/>
+      <c r="M222" s="12"/>
+      <c r="N222" s="2"/>
+      <c r="O222" s="12"/>
+      <c r="P222" s="2"/>
+      <c r="Q222" s="12"/>
+      <c r="R222" s="2"/>
+      <c r="S222" s="12"/>
+      <c r="T222" s="2"/>
+      <c r="U222" s="12"/>
+      <c r="V222" s="2"/>
+      <c r="W222" s="12"/>
+      <c r="X222" s="2"/>
+      <c r="Y222" s="12"/>
+      <c r="Z222" s="2"/>
+    </row>
+    <row r="223" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I223" s="12"/>
+      <c r="J223" s="2"/>
+      <c r="K223" s="12"/>
+      <c r="L223" s="2"/>
+      <c r="M223" s="12"/>
+      <c r="N223" s="2"/>
+      <c r="O223" s="12"/>
+      <c r="P223" s="2"/>
+      <c r="Q223" s="12"/>
+      <c r="R223" s="2"/>
+      <c r="S223" s="12"/>
+      <c r="T223" s="2"/>
+      <c r="U223" s="12"/>
+      <c r="V223" s="2"/>
+      <c r="W223" s="12"/>
+      <c r="X223" s="2"/>
+      <c r="Y223" s="12"/>
+      <c r="Z223" s="2"/>
+    </row>
+    <row r="224" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I224" s="12"/>
+      <c r="J224" s="2"/>
+      <c r="K224" s="12"/>
+      <c r="L224" s="2"/>
+      <c r="M224" s="12"/>
+      <c r="N224" s="2"/>
+      <c r="O224" s="12"/>
+      <c r="P224" s="2"/>
+      <c r="Q224" s="12"/>
+      <c r="R224" s="2"/>
+      <c r="S224" s="12"/>
+      <c r="T224" s="2"/>
+      <c r="U224" s="12"/>
+      <c r="V224" s="2"/>
+      <c r="W224" s="12"/>
+      <c r="X224" s="2"/>
+      <c r="Y224" s="12"/>
+      <c r="Z224" s="2"/>
+    </row>
+    <row r="225" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I225" s="12"/>
+      <c r="J225" s="2"/>
+      <c r="K225" s="12"/>
+      <c r="L225" s="2"/>
+      <c r="M225" s="12"/>
+      <c r="N225" s="2"/>
+      <c r="O225" s="12"/>
+      <c r="P225" s="2"/>
+      <c r="Q225" s="12"/>
+      <c r="R225" s="2"/>
+      <c r="S225" s="12"/>
+      <c r="T225" s="2"/>
+      <c r="U225" s="12"/>
+      <c r="V225" s="2"/>
+      <c r="W225" s="12"/>
+      <c r="X225" s="2"/>
+      <c r="Y225" s="12"/>
+      <c r="Z225" s="2"/>
+    </row>
+    <row r="226" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I226" s="12"/>
+      <c r="J226" s="2"/>
+      <c r="K226" s="12"/>
+      <c r="L226" s="2"/>
+      <c r="M226" s="12"/>
+      <c r="N226" s="2"/>
+      <c r="O226" s="12"/>
+      <c r="P226" s="2"/>
+      <c r="Q226" s="12"/>
+      <c r="R226" s="2"/>
+      <c r="S226" s="12"/>
+      <c r="T226" s="2"/>
+      <c r="U226" s="12"/>
+      <c r="V226" s="2"/>
+      <c r="W226" s="12"/>
+      <c r="X226" s="2"/>
+      <c r="Y226" s="12"/>
+      <c r="Z226" s="2"/>
+    </row>
+    <row r="227" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I227" s="12"/>
+      <c r="J227" s="2"/>
+      <c r="K227" s="12"/>
+      <c r="L227" s="2"/>
+      <c r="M227" s="12"/>
+      <c r="N227" s="2"/>
+      <c r="O227" s="12"/>
+      <c r="P227" s="2"/>
+      <c r="Q227" s="12"/>
+      <c r="R227" s="2"/>
+      <c r="S227" s="12"/>
+      <c r="T227" s="2"/>
+      <c r="U227" s="12"/>
+      <c r="V227" s="2"/>
+      <c r="W227" s="12"/>
+      <c r="X227" s="2"/>
+      <c r="Y227" s="12"/>
+      <c r="Z227" s="2"/>
+    </row>
+    <row r="228" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I228" s="12"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="12"/>
+      <c r="L228" s="2"/>
+      <c r="M228" s="12"/>
+      <c r="N228" s="2"/>
+      <c r="O228" s="12"/>
+      <c r="P228" s="2"/>
+      <c r="Q228" s="12"/>
+      <c r="R228" s="2"/>
+      <c r="S228" s="12"/>
+      <c r="T228" s="2"/>
+      <c r="U228" s="12"/>
+      <c r="V228" s="2"/>
+      <c r="W228" s="12"/>
+      <c r="X228" s="2"/>
+      <c r="Y228" s="12"/>
+      <c r="Z228" s="2"/>
+    </row>
+    <row r="229" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I229" s="12"/>
+      <c r="J229" s="2"/>
+      <c r="K229" s="12"/>
+      <c r="L229" s="2"/>
+      <c r="M229" s="12"/>
+      <c r="N229" s="2"/>
+      <c r="O229" s="12"/>
+      <c r="P229" s="2"/>
+      <c r="Q229" s="12"/>
+      <c r="R229" s="2"/>
+      <c r="S229" s="12"/>
+      <c r="T229" s="2"/>
+      <c r="U229" s="12"/>
+      <c r="V229" s="2"/>
+      <c r="W229" s="12"/>
+      <c r="X229" s="2"/>
+      <c r="Y229" s="12"/>
+      <c r="Z229" s="2"/>
+    </row>
+    <row r="230" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I230" s="12"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="12"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="12"/>
+      <c r="N230" s="2"/>
+      <c r="O230" s="12"/>
+      <c r="P230" s="2"/>
+      <c r="Q230" s="12"/>
+      <c r="R230" s="2"/>
+      <c r="S230" s="12"/>
+      <c r="T230" s="2"/>
+      <c r="U230" s="12"/>
+      <c r="V230" s="2"/>
+      <c r="W230" s="12"/>
+      <c r="X230" s="2"/>
+      <c r="Y230" s="12"/>
+      <c r="Z230" s="2"/>
+    </row>
+    <row r="231" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I231" s="12"/>
+      <c r="J231" s="2"/>
+      <c r="K231" s="12"/>
+      <c r="L231" s="2"/>
+      <c r="M231" s="12"/>
+      <c r="N231" s="2"/>
+      <c r="O231" s="12"/>
+      <c r="P231" s="2"/>
+      <c r="Q231" s="12"/>
+      <c r="R231" s="2"/>
+      <c r="S231" s="12"/>
+      <c r="T231" s="2"/>
+      <c r="U231" s="12"/>
+      <c r="V231" s="2"/>
+      <c r="W231" s="12"/>
+      <c r="X231" s="2"/>
+      <c r="Y231" s="12"/>
+      <c r="Z231" s="2"/>
+    </row>
+    <row r="232" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I232" s="12"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="12"/>
+      <c r="L232" s="2"/>
+      <c r="M232" s="12"/>
+      <c r="N232" s="2"/>
+      <c r="O232" s="12"/>
+      <c r="P232" s="2"/>
+      <c r="Q232" s="12"/>
+      <c r="R232" s="2"/>
+      <c r="S232" s="12"/>
+      <c r="T232" s="2"/>
+      <c r="U232" s="12"/>
+      <c r="V232" s="2"/>
+      <c r="W232" s="12"/>
+      <c r="X232" s="2"/>
+      <c r="Y232" s="12"/>
+      <c r="Z232" s="2"/>
+    </row>
+    <row r="233" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I233" s="12"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="12"/>
+      <c r="L233" s="2"/>
+      <c r="M233" s="12"/>
+      <c r="N233" s="2"/>
+      <c r="O233" s="12"/>
+      <c r="P233" s="2"/>
+      <c r="Q233" s="12"/>
+      <c r="R233" s="2"/>
+      <c r="S233" s="12"/>
+      <c r="T233" s="2"/>
+      <c r="U233" s="12"/>
+      <c r="V233" s="2"/>
+      <c r="W233" s="12"/>
+      <c r="X233" s="2"/>
+      <c r="Y233" s="12"/>
+      <c r="Z233" s="2"/>
+    </row>
+    <row r="234" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I234" s="12"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="12"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="12"/>
+      <c r="N234" s="2"/>
+      <c r="O234" s="12"/>
+      <c r="P234" s="2"/>
+      <c r="Q234" s="12"/>
+      <c r="R234" s="2"/>
+      <c r="S234" s="12"/>
+      <c r="T234" s="2"/>
+      <c r="U234" s="12"/>
+      <c r="V234" s="2"/>
+      <c r="W234" s="12"/>
+      <c r="X234" s="2"/>
+      <c r="Y234" s="12"/>
+      <c r="Z234" s="2"/>
+    </row>
+    <row r="235" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I235" s="12"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="12"/>
+      <c r="L235" s="2"/>
+      <c r="M235" s="12"/>
+      <c r="N235" s="2"/>
+      <c r="O235" s="12"/>
+      <c r="P235" s="2"/>
+      <c r="Q235" s="12"/>
+      <c r="R235" s="2"/>
+      <c r="S235" s="12"/>
+      <c r="T235" s="2"/>
+      <c r="U235" s="12"/>
+      <c r="V235" s="2"/>
+      <c r="W235" s="12"/>
+      <c r="X235" s="2"/>
+      <c r="Y235" s="12"/>
+      <c r="Z235" s="2"/>
+    </row>
+    <row r="236" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I236" s="12"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="12"/>
+      <c r="L236" s="2"/>
+      <c r="M236" s="12"/>
+      <c r="N236" s="2"/>
+      <c r="O236" s="12"/>
+      <c r="P236" s="2"/>
+      <c r="Q236" s="12"/>
+      <c r="R236" s="2"/>
+      <c r="S236" s="12"/>
+      <c r="T236" s="2"/>
+      <c r="U236" s="12"/>
+      <c r="V236" s="2"/>
+      <c r="W236" s="12"/>
+      <c r="X236" s="2"/>
+      <c r="Y236" s="12"/>
+      <c r="Z236" s="2"/>
+    </row>
+    <row r="237" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I237" s="12"/>
+      <c r="J237" s="2"/>
+      <c r="K237" s="12"/>
+      <c r="L237" s="2"/>
+      <c r="M237" s="12"/>
+      <c r="N237" s="2"/>
+      <c r="O237" s="12"/>
+      <c r="P237" s="2"/>
+      <c r="Q237" s="12"/>
+      <c r="R237" s="2"/>
+      <c r="S237" s="12"/>
+      <c r="T237" s="2"/>
+      <c r="U237" s="12"/>
+      <c r="V237" s="2"/>
+      <c r="W237" s="12"/>
+      <c r="X237" s="2"/>
+      <c r="Y237" s="12"/>
+      <c r="Z237" s="2"/>
+    </row>
+    <row r="238" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I238" s="12"/>
+      <c r="J238" s="2"/>
+      <c r="K238" s="12"/>
+      <c r="L238" s="2"/>
+      <c r="M238" s="12"/>
+      <c r="N238" s="2"/>
+      <c r="O238" s="12"/>
+      <c r="P238" s="2"/>
+      <c r="Q238" s="12"/>
+      <c r="R238" s="2"/>
+      <c r="S238" s="12"/>
+      <c r="T238" s="2"/>
+      <c r="U238" s="12"/>
+      <c r="V238" s="2"/>
+      <c r="W238" s="12"/>
+      <c r="X238" s="2"/>
+      <c r="Y238" s="12"/>
+      <c r="Z238" s="2"/>
+    </row>
+    <row r="239" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I239" s="12"/>
+      <c r="J239" s="2"/>
+      <c r="K239" s="12"/>
+      <c r="L239" s="2"/>
+      <c r="M239" s="12"/>
+      <c r="N239" s="2"/>
+      <c r="O239" s="12"/>
+      <c r="P239" s="2"/>
+      <c r="Q239" s="12"/>
+      <c r="R239" s="2"/>
+      <c r="S239" s="12"/>
+      <c r="T239" s="2"/>
+      <c r="U239" s="12"/>
+      <c r="V239" s="2"/>
+      <c r="W239" s="12"/>
+      <c r="X239" s="2"/>
+      <c r="Y239" s="12"/>
+      <c r="Z239" s="2"/>
+    </row>
+    <row r="240" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I240" s="12"/>
+      <c r="J240" s="2"/>
+      <c r="K240" s="12"/>
+      <c r="L240" s="2"/>
+      <c r="M240" s="12"/>
+      <c r="N240" s="2"/>
+      <c r="O240" s="12"/>
+      <c r="P240" s="2"/>
+      <c r="Q240" s="12"/>
+      <c r="R240" s="2"/>
+      <c r="S240" s="12"/>
+      <c r="T240" s="2"/>
+      <c r="U240" s="12"/>
+      <c r="V240" s="2"/>
+      <c r="W240" s="12"/>
+      <c r="X240" s="2"/>
+      <c r="Y240" s="12"/>
+      <c r="Z240" s="2"/>
+    </row>
+    <row r="241" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I241" s="12"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="12"/>
+      <c r="L241" s="2"/>
+      <c r="M241" s="12"/>
+      <c r="N241" s="2"/>
+      <c r="O241" s="12"/>
+      <c r="P241" s="2"/>
+      <c r="Q241" s="12"/>
+      <c r="R241" s="2"/>
+      <c r="S241" s="12"/>
+      <c r="T241" s="2"/>
+      <c r="U241" s="12"/>
+      <c r="V241" s="2"/>
+      <c r="W241" s="12"/>
+      <c r="X241" s="2"/>
+      <c r="Y241" s="12"/>
+      <c r="Z241" s="2"/>
+    </row>
+    <row r="242" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I242" s="12"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="12"/>
+      <c r="L242" s="2"/>
+      <c r="M242" s="12"/>
+      <c r="N242" s="2"/>
+      <c r="O242" s="12"/>
+      <c r="P242" s="2"/>
+      <c r="Q242" s="12"/>
+      <c r="R242" s="2"/>
+      <c r="S242" s="12"/>
+      <c r="T242" s="2"/>
+      <c r="U242" s="12"/>
+      <c r="V242" s="2"/>
+      <c r="W242" s="12"/>
+      <c r="X242" s="2"/>
+      <c r="Y242" s="12"/>
+      <c r="Z242" s="2"/>
+    </row>
+    <row r="243" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I243" s="12"/>
+      <c r="J243" s="2"/>
+      <c r="K243" s="12"/>
+      <c r="L243" s="2"/>
+      <c r="M243" s="12"/>
+      <c r="N243" s="2"/>
+      <c r="O243" s="12"/>
+      <c r="P243" s="2"/>
+      <c r="Q243" s="12"/>
+      <c r="R243" s="2"/>
+      <c r="S243" s="12"/>
+      <c r="T243" s="2"/>
+      <c r="U243" s="12"/>
+      <c r="V243" s="2"/>
+      <c r="W243" s="12"/>
+      <c r="X243" s="2"/>
+      <c r="Y243" s="12"/>
+      <c r="Z243" s="2"/>
+    </row>
+    <row r="244" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I244" s="12"/>
+      <c r="J244" s="2"/>
+      <c r="K244" s="12"/>
+      <c r="L244" s="2"/>
+      <c r="M244" s="12"/>
+      <c r="N244" s="2"/>
+      <c r="O244" s="12"/>
+      <c r="P244" s="2"/>
+      <c r="Q244" s="12"/>
+      <c r="R244" s="2"/>
+      <c r="S244" s="12"/>
+      <c r="T244" s="2"/>
+      <c r="U244" s="12"/>
+      <c r="V244" s="2"/>
+      <c r="W244" s="12"/>
+      <c r="X244" s="2"/>
+      <c r="Y244" s="12"/>
+      <c r="Z244" s="2"/>
+    </row>
+    <row r="245" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I245" s="12"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="12"/>
+      <c r="L245" s="2"/>
+      <c r="M245" s="12"/>
+      <c r="N245" s="2"/>
+      <c r="O245" s="12"/>
+      <c r="P245" s="2"/>
+      <c r="Q245" s="12"/>
+      <c r="R245" s="2"/>
+      <c r="S245" s="12"/>
+      <c r="T245" s="2"/>
+      <c r="U245" s="12"/>
+      <c r="V245" s="2"/>
+      <c r="W245" s="12"/>
+      <c r="X245" s="2"/>
+      <c r="Y245" s="12"/>
+      <c r="Z245" s="2"/>
+    </row>
+    <row r="246" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I246" s="12"/>
+      <c r="J246" s="2"/>
+      <c r="K246" s="12"/>
+      <c r="L246" s="2"/>
+      <c r="M246" s="12"/>
+      <c r="N246" s="2"/>
+      <c r="O246" s="12"/>
+      <c r="P246" s="2"/>
+      <c r="Q246" s="12"/>
+      <c r="R246" s="2"/>
+      <c r="S246" s="12"/>
+      <c r="T246" s="2"/>
+      <c r="U246" s="12"/>
+      <c r="V246" s="2"/>
+      <c r="W246" s="12"/>
+      <c r="X246" s="2"/>
+      <c r="Y246" s="12"/>
+      <c r="Z246" s="2"/>
+    </row>
+    <row r="247" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I247" s="12"/>
+      <c r="J247" s="2"/>
+      <c r="K247" s="12"/>
+      <c r="L247" s="2"/>
+      <c r="M247" s="12"/>
+      <c r="N247" s="2"/>
+      <c r="O247" s="12"/>
+      <c r="P247" s="2"/>
+      <c r="Q247" s="12"/>
+      <c r="R247" s="2"/>
+      <c r="S247" s="12"/>
+      <c r="T247" s="2"/>
+      <c r="U247" s="12"/>
+      <c r="V247" s="2"/>
+      <c r="W247" s="12"/>
+      <c r="X247" s="2"/>
+      <c r="Y247" s="12"/>
+      <c r="Z247" s="2"/>
+    </row>
+    <row r="248" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I248" s="12"/>
+      <c r="J248" s="2"/>
+      <c r="K248" s="12"/>
+      <c r="L248" s="2"/>
+      <c r="M248" s="12"/>
+      <c r="N248" s="2"/>
+      <c r="O248" s="12"/>
+      <c r="P248" s="2"/>
+      <c r="Q248" s="12"/>
+      <c r="R248" s="2"/>
+      <c r="S248" s="12"/>
+      <c r="T248" s="2"/>
+      <c r="U248" s="12"/>
+      <c r="V248" s="2"/>
+      <c r="W248" s="12"/>
+      <c r="X248" s="2"/>
+      <c r="Y248" s="12"/>
+      <c r="Z248" s="2"/>
+    </row>
+    <row r="249" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I249" s="12"/>
+      <c r="J249" s="2"/>
+      <c r="K249" s="12"/>
+      <c r="L249" s="2"/>
+      <c r="M249" s="12"/>
+      <c r="N249" s="2"/>
+      <c r="O249" s="12"/>
+      <c r="P249" s="2"/>
+      <c r="Q249" s="12"/>
+      <c r="R249" s="2"/>
+      <c r="S249" s="12"/>
+      <c r="T249" s="2"/>
+      <c r="U249" s="12"/>
+      <c r="V249" s="2"/>
+      <c r="W249" s="12"/>
+      <c r="X249" s="2"/>
+      <c r="Y249" s="12"/>
+      <c r="Z249" s="2"/>
+    </row>
+    <row r="250" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I250" s="12"/>
+      <c r="J250" s="2"/>
+      <c r="K250" s="12"/>
+      <c r="L250" s="2"/>
+      <c r="M250" s="12"/>
+      <c r="N250" s="2"/>
+      <c r="O250" s="12"/>
+      <c r="P250" s="2"/>
+      <c r="Q250" s="12"/>
+      <c r="R250" s="2"/>
+      <c r="S250" s="12"/>
+      <c r="T250" s="2"/>
+      <c r="U250" s="12"/>
+      <c r="V250" s="2"/>
+      <c r="W250" s="12"/>
+      <c r="X250" s="2"/>
+      <c r="Y250" s="12"/>
+      <c r="Z250" s="2"/>
+    </row>
+    <row r="251" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I251" s="12"/>
+      <c r="J251" s="2"/>
+      <c r="K251" s="12"/>
+      <c r="L251" s="2"/>
+      <c r="M251" s="12"/>
+      <c r="N251" s="2"/>
+      <c r="O251" s="12"/>
+      <c r="P251" s="2"/>
+      <c r="Q251" s="12"/>
+      <c r="R251" s="2"/>
+      <c r="S251" s="12"/>
+      <c r="T251" s="2"/>
+      <c r="U251" s="12"/>
+      <c r="V251" s="2"/>
+      <c r="W251" s="12"/>
+      <c r="X251" s="2"/>
+      <c r="Y251" s="12"/>
+      <c r="Z251" s="2"/>
+    </row>
+    <row r="252" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I252" s="12"/>
+      <c r="J252" s="2"/>
+      <c r="K252" s="12"/>
+      <c r="L252" s="2"/>
+      <c r="M252" s="12"/>
+      <c r="N252" s="2"/>
+      <c r="O252" s="12"/>
+      <c r="P252" s="2"/>
+      <c r="Q252" s="12"/>
+      <c r="R252" s="2"/>
+      <c r="S252" s="12"/>
+      <c r="T252" s="2"/>
+      <c r="U252" s="12"/>
+      <c r="V252" s="2"/>
+      <c r="W252" s="12"/>
+      <c r="X252" s="2"/>
+      <c r="Y252" s="12"/>
+      <c r="Z252" s="2"/>
+    </row>
+    <row r="253" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I253" s="12"/>
+      <c r="J253" s="2"/>
+      <c r="K253" s="12"/>
+      <c r="L253" s="2"/>
+      <c r="M253" s="12"/>
+      <c r="N253" s="2"/>
+      <c r="O253" s="12"/>
+      <c r="P253" s="2"/>
+      <c r="Q253" s="12"/>
+      <c r="R253" s="2"/>
+      <c r="S253" s="12"/>
+      <c r="T253" s="2"/>
+      <c r="U253" s="12"/>
+      <c r="V253" s="2"/>
+      <c r="W253" s="12"/>
+      <c r="X253" s="2"/>
+      <c r="Y253" s="12"/>
+      <c r="Z253" s="2"/>
+    </row>
+    <row r="254" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I254" s="12"/>
+      <c r="J254" s="2"/>
+      <c r="K254" s="12"/>
+      <c r="L254" s="2"/>
+      <c r="M254" s="12"/>
+      <c r="N254" s="2"/>
+      <c r="O254" s="12"/>
+      <c r="P254" s="2"/>
+      <c r="Q254" s="12"/>
+      <c r="R254" s="2"/>
+      <c r="S254" s="12"/>
+      <c r="T254" s="2"/>
+      <c r="U254" s="12"/>
+      <c r="V254" s="2"/>
+      <c r="W254" s="12"/>
+      <c r="X254" s="2"/>
+      <c r="Y254" s="12"/>
+      <c r="Z254" s="2"/>
+    </row>
+    <row r="255" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I255" s="12"/>
+      <c r="J255" s="2"/>
+      <c r="K255" s="12"/>
+      <c r="L255" s="2"/>
+      <c r="M255" s="12"/>
+      <c r="N255" s="2"/>
+      <c r="O255" s="12"/>
+      <c r="P255" s="2"/>
+      <c r="Q255" s="12"/>
+      <c r="R255" s="2"/>
+      <c r="S255" s="12"/>
+      <c r="T255" s="2"/>
+      <c r="U255" s="12"/>
+      <c r="V255" s="2"/>
+      <c r="W255" s="12"/>
+      <c r="X255" s="2"/>
+      <c r="Y255" s="12"/>
+      <c r="Z255" s="2"/>
+    </row>
+    <row r="256" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I256" s="12"/>
+      <c r="J256" s="2"/>
+      <c r="K256" s="12"/>
+      <c r="L256" s="2"/>
+      <c r="M256" s="12"/>
+      <c r="N256" s="2"/>
+      <c r="O256" s="12"/>
+      <c r="P256" s="2"/>
+      <c r="Q256" s="12"/>
+      <c r="R256" s="2"/>
+      <c r="S256" s="12"/>
+      <c r="T256" s="2"/>
+      <c r="U256" s="12"/>
+      <c r="V256" s="2"/>
+      <c r="W256" s="12"/>
+      <c r="X256" s="2"/>
+      <c r="Y256" s="12"/>
+      <c r="Z256" s="2"/>
+    </row>
+    <row r="257" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I257" s="12"/>
+      <c r="J257" s="2"/>
+      <c r="K257" s="12"/>
+      <c r="L257" s="2"/>
+      <c r="M257" s="12"/>
+      <c r="N257" s="2"/>
+      <c r="O257" s="12"/>
+      <c r="P257" s="2"/>
+      <c r="Q257" s="12"/>
+      <c r="R257" s="2"/>
+      <c r="S257" s="12"/>
+      <c r="T257" s="2"/>
+      <c r="U257" s="12"/>
+      <c r="V257" s="2"/>
+      <c r="W257" s="12"/>
+      <c r="X257" s="2"/>
+      <c r="Y257" s="12"/>
+      <c r="Z257" s="2"/>
+    </row>
+    <row r="258" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I258" s="12"/>
+      <c r="J258" s="2"/>
+      <c r="K258" s="12"/>
+      <c r="L258" s="2"/>
+      <c r="M258" s="12"/>
+      <c r="N258" s="2"/>
+      <c r="O258" s="12"/>
+      <c r="P258" s="2"/>
+      <c r="Q258" s="12"/>
+      <c r="R258" s="2"/>
+      <c r="S258" s="12"/>
+      <c r="T258" s="2"/>
+      <c r="U258" s="12"/>
+      <c r="V258" s="2"/>
+      <c r="W258" s="12"/>
+      <c r="X258" s="2"/>
+      <c r="Y258" s="12"/>
+      <c r="Z258" s="2"/>
+    </row>
+    <row r="259" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I259" s="12"/>
+      <c r="J259" s="2"/>
+      <c r="K259" s="12"/>
+      <c r="L259" s="2"/>
+      <c r="M259" s="12"/>
+      <c r="N259" s="2"/>
+      <c r="O259" s="12"/>
+      <c r="P259" s="2"/>
+      <c r="Q259" s="12"/>
+      <c r="R259" s="2"/>
+      <c r="S259" s="12"/>
+      <c r="T259" s="2"/>
+      <c r="U259" s="12"/>
+      <c r="V259" s="2"/>
+      <c r="W259" s="12"/>
+      <c r="X259" s="2"/>
+      <c r="Y259" s="12"/>
+      <c r="Z259" s="2"/>
+    </row>
+    <row r="260" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I260" s="12"/>
+      <c r="J260" s="2"/>
+      <c r="K260" s="12"/>
+      <c r="L260" s="2"/>
+      <c r="M260" s="12"/>
+      <c r="N260" s="2"/>
+      <c r="O260" s="12"/>
+      <c r="P260" s="2"/>
+      <c r="Q260" s="12"/>
+      <c r="R260" s="2"/>
+      <c r="S260" s="12"/>
+      <c r="T260" s="2"/>
+      <c r="U260" s="12"/>
+      <c r="V260" s="2"/>
+      <c r="W260" s="12"/>
+      <c r="X260" s="2"/>
+      <c r="Y260" s="12"/>
+      <c r="Z260" s="2"/>
+    </row>
+    <row r="261" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I261" s="12"/>
+      <c r="J261" s="2"/>
+      <c r="K261" s="12"/>
+      <c r="L261" s="2"/>
+      <c r="M261" s="12"/>
+      <c r="N261" s="2"/>
+      <c r="O261" s="12"/>
+      <c r="P261" s="2"/>
+      <c r="Q261" s="12"/>
+      <c r="R261" s="2"/>
+      <c r="S261" s="12"/>
+      <c r="T261" s="2"/>
+      <c r="U261" s="12"/>
+      <c r="V261" s="2"/>
+      <c r="W261" s="12"/>
+      <c r="X261" s="2"/>
+      <c r="Y261" s="12"/>
+      <c r="Z261" s="2"/>
+    </row>
+    <row r="262" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I262" s="12"/>
+      <c r="J262" s="2"/>
+      <c r="K262" s="12"/>
+      <c r="L262" s="2"/>
+      <c r="M262" s="12"/>
+      <c r="N262" s="2"/>
+      <c r="O262" s="12"/>
+      <c r="P262" s="2"/>
+      <c r="Q262" s="12"/>
+      <c r="R262" s="2"/>
+      <c r="S262" s="12"/>
+      <c r="T262" s="2"/>
+      <c r="U262" s="12"/>
+      <c r="V262" s="2"/>
+      <c r="W262" s="12"/>
+      <c r="X262" s="2"/>
+      <c r="Y262" s="12"/>
+      <c r="Z262" s="2"/>
+    </row>
+    <row r="263" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I263" s="12"/>
+      <c r="J263" s="2"/>
+      <c r="K263" s="12"/>
+      <c r="L263" s="2"/>
+      <c r="M263" s="12"/>
+      <c r="N263" s="2"/>
+      <c r="O263" s="12"/>
+      <c r="P263" s="2"/>
+      <c r="Q263" s="12"/>
+      <c r="R263" s="2"/>
+      <c r="S263" s="12"/>
+      <c r="T263" s="2"/>
+      <c r="U263" s="12"/>
+      <c r="V263" s="2"/>
+      <c r="W263" s="12"/>
+      <c r="X263" s="2"/>
+      <c r="Y263" s="12"/>
+      <c r="Z263" s="2"/>
+    </row>
+    <row r="264" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I264" s="12"/>
+      <c r="J264" s="2"/>
+      <c r="K264" s="12"/>
+      <c r="L264" s="2"/>
+      <c r="M264" s="12"/>
+      <c r="N264" s="2"/>
+      <c r="O264" s="12"/>
+      <c r="P264" s="2"/>
+      <c r="Q264" s="12"/>
+      <c r="R264" s="2"/>
+      <c r="S264" s="12"/>
+      <c r="T264" s="2"/>
+      <c r="U264" s="12"/>
+      <c r="V264" s="2"/>
+      <c r="W264" s="12"/>
+      <c r="X264" s="2"/>
+      <c r="Y264" s="12"/>
+      <c r="Z264" s="2"/>
+    </row>
+    <row r="265" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I265" s="12"/>
+      <c r="J265" s="2"/>
+      <c r="K265" s="12"/>
+      <c r="L265" s="2"/>
+      <c r="M265" s="12"/>
+      <c r="N265" s="2"/>
+      <c r="O265" s="12"/>
+      <c r="P265" s="2"/>
+      <c r="Q265" s="12"/>
+      <c r="R265" s="2"/>
+      <c r="S265" s="12"/>
+      <c r="T265" s="2"/>
+      <c r="U265" s="12"/>
+      <c r="V265" s="2"/>
+      <c r="W265" s="12"/>
+      <c r="X265" s="2"/>
+      <c r="Y265" s="12"/>
+      <c r="Z265" s="2"/>
+    </row>
+    <row r="266" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I266" s="12"/>
+      <c r="J266" s="2"/>
+      <c r="K266" s="12"/>
+      <c r="L266" s="2"/>
+      <c r="M266" s="12"/>
+      <c r="N266" s="2"/>
+      <c r="O266" s="12"/>
+      <c r="P266" s="2"/>
+      <c r="Q266" s="12"/>
+      <c r="R266" s="2"/>
+      <c r="S266" s="12"/>
+      <c r="T266" s="2"/>
+      <c r="U266" s="12"/>
+      <c r="V266" s="2"/>
+      <c r="W266" s="12"/>
+      <c r="X266" s="2"/>
+      <c r="Y266" s="12"/>
+      <c r="Z266" s="2"/>
+    </row>
+    <row r="267" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I267" s="12"/>
+      <c r="J267" s="2"/>
+      <c r="K267" s="12"/>
+      <c r="L267" s="2"/>
+      <c r="M267" s="12"/>
+      <c r="N267" s="2"/>
+      <c r="O267" s="12"/>
+      <c r="P267" s="2"/>
+      <c r="Q267" s="12"/>
+      <c r="R267" s="2"/>
+      <c r="S267" s="12"/>
+      <c r="T267" s="2"/>
+      <c r="U267" s="12"/>
+      <c r="V267" s="2"/>
+      <c r="W267" s="12"/>
+      <c r="X267" s="2"/>
+      <c r="Y267" s="12"/>
+      <c r="Z267" s="2"/>
+    </row>
+    <row r="268" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I268" s="12"/>
+      <c r="J268" s="2"/>
+      <c r="K268" s="12"/>
+      <c r="L268" s="2"/>
+      <c r="M268" s="12"/>
+      <c r="N268" s="2"/>
+      <c r="O268" s="12"/>
+      <c r="P268" s="2"/>
+      <c r="Q268" s="12"/>
+      <c r="R268" s="2"/>
+      <c r="S268" s="12"/>
+      <c r="T268" s="2"/>
+      <c r="U268" s="12"/>
+      <c r="V268" s="2"/>
+      <c r="W268" s="12"/>
+      <c r="X268" s="2"/>
+      <c r="Y268" s="12"/>
+      <c r="Z268" s="2"/>
+    </row>
+    <row r="269" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I269" s="12"/>
+      <c r="J269" s="2"/>
+      <c r="K269" s="12"/>
+      <c r="L269" s="2"/>
+      <c r="M269" s="12"/>
+      <c r="N269" s="2"/>
+      <c r="O269" s="12"/>
+      <c r="P269" s="2"/>
+      <c r="Q269" s="12"/>
+      <c r="R269" s="2"/>
+      <c r="S269" s="12"/>
+      <c r="T269" s="2"/>
+      <c r="U269" s="12"/>
+      <c r="V269" s="2"/>
+      <c r="W269" s="12"/>
+      <c r="X269" s="2"/>
+      <c r="Y269" s="12"/>
+      <c r="Z269" s="2"/>
+    </row>
+    <row r="270" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I270" s="12"/>
+      <c r="J270" s="2"/>
+      <c r="K270" s="12"/>
+      <c r="L270" s="2"/>
+      <c r="M270" s="12"/>
+      <c r="N270" s="2"/>
+      <c r="O270" s="12"/>
+      <c r="P270" s="2"/>
+      <c r="Q270" s="12"/>
+      <c r="R270" s="2"/>
+      <c r="S270" s="12"/>
+      <c r="T270" s="2"/>
+      <c r="U270" s="12"/>
+      <c r="V270" s="2"/>
+      <c r="W270" s="12"/>
+      <c r="X270" s="2"/>
+      <c r="Y270" s="12"/>
+      <c r="Z270" s="2"/>
+    </row>
+    <row r="271" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I271" s="12"/>
+      <c r="J271" s="2"/>
+      <c r="K271" s="12"/>
+      <c r="L271" s="2"/>
+      <c r="M271" s="12"/>
+      <c r="N271" s="2"/>
+      <c r="O271" s="12"/>
+      <c r="P271" s="2"/>
+      <c r="Q271" s="12"/>
+      <c r="R271" s="2"/>
+      <c r="S271" s="12"/>
+      <c r="T271" s="2"/>
+      <c r="U271" s="12"/>
+      <c r="V271" s="2"/>
+      <c r="W271" s="12"/>
+      <c r="X271" s="2"/>
+      <c r="Y271" s="12"/>
+      <c r="Z271" s="2"/>
+    </row>
+    <row r="272" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I272" s="12"/>
+      <c r="J272" s="2"/>
+      <c r="K272" s="12"/>
+      <c r="L272" s="2"/>
+      <c r="M272" s="12"/>
+      <c r="N272" s="2"/>
+      <c r="O272" s="12"/>
+      <c r="P272" s="2"/>
+      <c r="Q272" s="12"/>
+      <c r="R272" s="2"/>
+      <c r="S272" s="12"/>
+      <c r="T272" s="2"/>
+      <c r="U272" s="12"/>
+      <c r="V272" s="2"/>
+      <c r="W272" s="12"/>
+      <c r="X272" s="2"/>
+      <c r="Y272" s="12"/>
+      <c r="Z272" s="2"/>
+    </row>
+    <row r="273" spans="9:26" x14ac:dyDescent="0.25">
+      <c r="I273" s="12"/>
+      <c r="J273" s="2"/>
+      <c r="K273" s="12"/>
+      <c r="L273" s="2"/>
+      <c r="M273" s="12"/>
+      <c r="N273" s="2"/>
+      <c r="O273" s="12"/>
+      <c r="P273" s="2"/>
+      <c r="Q273" s="12"/>
+      <c r="R273" s="2"/>
+      <c r="S273" s="12"/>
+      <c r="T273" s="2"/>
+      <c r="U273" s="12"/>
+      <c r="V273" s="2"/>
+      <c r="W273" s="12"/>
+      <c r="X273" s="2"/>
+      <c r="Y273" s="12"/>
+      <c r="Z273" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Work Packages/WP1 Management/Stakeholders/PaNOSC stakeholders.xlsx
+++ b/Work Packages/WP1 Management/Stakeholders/PaNOSC stakeholders.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Employer</t>
   </si>
@@ -132,11 +132,26 @@
   <si>
     <t>test comment</t>
   </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Götz</t>
+  </si>
+  <si>
+    <t>andy.gotz@esrf.fr</t>
+  </si>
+  <si>
+    <t>+33 476 88 21 31</t>
+  </si>
+  <si>
+    <t>Software Manager</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,40 +241,10 @@
   </cellStyles>
   <dxfs count="29">
     <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -358,13 +343,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -469,43 +484,87 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>73097</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>431728</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5454722" y="2657475"/>
+          <a:ext cx="358631" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AA1048576" totalsRowShown="0" headerRowDxfId="27" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AA1048576" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:AA1048576"/>
   <sortState ref="A2:AA1048576">
     <sortCondition ref="F1:F1048576"/>
   </sortState>
   <tableColumns count="27">
-    <tableColumn id="1" name="Employer" dataDxfId="8"/>
-    <tableColumn id="2" name="Surname" dataDxfId="7"/>
-    <tableColumn id="3" name="Name" dataDxfId="6"/>
-    <tableColumn id="4" name="Email" dataDxfId="5"/>
-    <tableColumn id="5" name="Telephone" dataDxfId="4"/>
-    <tableColumn id="6" name="Job Title" dataDxfId="3"/>
-    <tableColumn id="7" name="Picture" dataDxfId="2"/>
-    <tableColumn id="8" name="PaNOSC role" dataDxfId="0"/>
-    <tableColumn id="9" name="WP1 leader" dataDxfId="1"/>
-    <tableColumn id="10" name="WP1 contributor" dataDxfId="26"/>
-    <tableColumn id="11" name="WP2 leader" dataDxfId="24"/>
-    <tableColumn id="12" name="WP2 contributor" dataDxfId="25"/>
-    <tableColumn id="13" name="WP3 leader" dataDxfId="22"/>
-    <tableColumn id="14" name="WP3 contributor" dataDxfId="23"/>
-    <tableColumn id="15" name="WP4 leader" dataDxfId="20"/>
-    <tableColumn id="16" name="WP4 contributor" dataDxfId="21"/>
-    <tableColumn id="17" name="WP5 leader" dataDxfId="18"/>
-    <tableColumn id="18" name="WP5 contributor" dataDxfId="19"/>
-    <tableColumn id="19" name="WP6 leader" dataDxfId="16"/>
-    <tableColumn id="20" name="WP6 contributor" dataDxfId="17"/>
-    <tableColumn id="21" name="WP7 leader" dataDxfId="14"/>
-    <tableColumn id="22" name="WP7 contributor" dataDxfId="15"/>
-    <tableColumn id="23" name="WP8 leader" dataDxfId="12"/>
-    <tableColumn id="24" name="WP8 contributor" dataDxfId="13"/>
-    <tableColumn id="25" name="WP9 leader" dataDxfId="10"/>
-    <tableColumn id="26" name="WP9 contributor" dataDxfId="11"/>
-    <tableColumn id="27" name="comments" dataDxfId="9"/>
+    <tableColumn id="1" name="Employer" dataDxfId="26"/>
+    <tableColumn id="2" name="Surname" dataDxfId="25"/>
+    <tableColumn id="3" name="Name" dataDxfId="24"/>
+    <tableColumn id="4" name="Email" dataDxfId="23"/>
+    <tableColumn id="5" name="Telephone" dataDxfId="22"/>
+    <tableColumn id="6" name="Job Title" dataDxfId="21"/>
+    <tableColumn id="7" name="Picture" dataDxfId="20"/>
+    <tableColumn id="8" name="PaNOSC role" dataDxfId="19"/>
+    <tableColumn id="9" name="WP1 leader" dataDxfId="18"/>
+    <tableColumn id="10" name="WP1 contributor" dataDxfId="17"/>
+    <tableColumn id="11" name="WP2 leader" dataDxfId="16"/>
+    <tableColumn id="12" name="WP2 contributor" dataDxfId="15"/>
+    <tableColumn id="13" name="WP3 leader" dataDxfId="14"/>
+    <tableColumn id="14" name="WP3 contributor" dataDxfId="13"/>
+    <tableColumn id="15" name="WP4 leader" dataDxfId="12"/>
+    <tableColumn id="16" name="WP4 contributor" dataDxfId="11"/>
+    <tableColumn id="17" name="WP5 leader" dataDxfId="10"/>
+    <tableColumn id="18" name="WP5 contributor" dataDxfId="9"/>
+    <tableColumn id="19" name="WP6 leader" dataDxfId="8"/>
+    <tableColumn id="20" name="WP6 contributor" dataDxfId="7"/>
+    <tableColumn id="21" name="WP7 leader" dataDxfId="6"/>
+    <tableColumn id="22" name="WP7 contributor" dataDxfId="5"/>
+    <tableColumn id="23" name="WP8 leader" dataDxfId="4"/>
+    <tableColumn id="24" name="WP8 contributor" dataDxfId="3"/>
+    <tableColumn id="25" name="WP9 leader" dataDxfId="2"/>
+    <tableColumn id="26" name="WP9 contributor" dataDxfId="1"/>
+    <tableColumn id="27" name="comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -801,7 +860,7 @@
   <dimension ref="A1:AA273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1082,25 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I5" s="12"/>
       <c r="J5" s="2"/>
       <c r="K5" s="12"/>
@@ -6407,11 +6484,13 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>